--- a/Ortega Valle Manuel 20212.xlsx
+++ b/Ortega Valle Manuel 20212.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="1469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="1472">
   <si>
     <t>NC</t>
   </si>
@@ -895,6 +895,9 @@
     <t>IXTLA</t>
   </si>
   <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
     <t>DE JESUS</t>
   </si>
   <si>
@@ -940,12 +943,12 @@
     <t>EDGAR DANIEL</t>
   </si>
   <si>
+    <t>JESUS</t>
+  </si>
+  <si>
     <t>EVELYN</t>
   </si>
   <si>
-    <t>JESUS</t>
-  </si>
-  <si>
     <t>ANGEL ALDAHIR</t>
   </si>
   <si>
@@ -1003,6 +1006,9 @@
     <t>danycraft111@gmail.com</t>
   </si>
   <si>
+    <t>jesushernandezsarmiento108@gmail.com</t>
+  </si>
+  <si>
     <t>evelynldj@gmail.com</t>
   </si>
   <si>
@@ -1072,6 +1078,9 @@
     <t>2721859278</t>
   </si>
   <si>
+    <t>2722146369</t>
+  </si>
+  <si>
     <t>2721972074</t>
   </si>
   <si>
@@ -1171,6 +1180,9 @@
     <t>FRANCISCO JAVIER HERNANDEZ VASQUEZ</t>
   </si>
   <si>
+    <t>JORGE HERNÁNDEZ ATLAHUA</t>
+  </si>
+  <si>
     <t>MALDONADO LÓPEZ TETLA</t>
   </si>
   <si>
@@ -2081,9 +2093,6 @@
   </si>
   <si>
     <t>OCTAVIANO</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
   </si>
   <si>
     <t>SUAREZ</t>
@@ -5951,7 +5960,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6012,22 +6021,22 @@
         <v>282</v>
       </c>
       <c r="D2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="I2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="J2" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -6044,22 +6053,22 @@
         <v>283</v>
       </c>
       <c r="D3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H3" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="I3" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="J3" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -6076,25 +6085,25 @@
         <v>284</v>
       </c>
       <c r="D4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G4" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H4" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="I4" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="J4" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -6111,25 +6120,25 @@
         <v>285</v>
       </c>
       <c r="D5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F5" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G5" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H5" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I5" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="J5" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -6146,25 +6155,25 @@
         <v>286</v>
       </c>
       <c r="D6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H6" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="I6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -6181,25 +6190,25 @@
         <v>287</v>
       </c>
       <c r="D7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="H7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="I7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="J7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -6216,22 +6225,22 @@
         <v>288</v>
       </c>
       <c r="D8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H8" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="I8" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="J8" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -6248,22 +6257,22 @@
         <v>289</v>
       </c>
       <c r="D9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F9" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H9" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="I9" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="J9" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -6280,25 +6289,25 @@
         <v>290</v>
       </c>
       <c r="D10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F10" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G10" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H10" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="I10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="J10" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -6315,19 +6324,19 @@
         <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F11" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G11" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H11" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -6335,133 +6344,133 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>20330051920347</v>
+        <v>20330051920346</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>291</v>
       </c>
       <c r="D12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F12" t="s">
-        <v>350</v>
+        <v>352</v>
+      </c>
+      <c r="G12" t="s">
+        <v>352</v>
       </c>
       <c r="H12" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="I12" t="s">
-        <v>404</v>
+        <v>328</v>
       </c>
       <c r="J12" t="s">
-        <v>423</v>
+        <v>352</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>20330051920348</v>
+        <v>20330051920347</v>
       </c>
       <c r="B13" t="s">
-        <v>273</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>292</v>
       </c>
       <c r="D13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F13" t="s">
-        <v>351</v>
-      </c>
-      <c r="G13" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="H13" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="I13" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="J13" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>20330051920349</v>
+        <v>20330051920348</v>
       </c>
       <c r="B14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C14" t="s">
         <v>293</v>
       </c>
       <c r="D14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E14" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F14" t="s">
-        <v>352</v>
+        <v>354</v>
+      </c>
+      <c r="G14" t="s">
+        <v>370</v>
       </c>
       <c r="H14" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="I14" t="s">
-        <v>329</v>
+        <v>409</v>
       </c>
       <c r="J14" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>20330051920350</v>
+        <v>20330051920349</v>
       </c>
       <c r="B15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>294</v>
       </c>
       <c r="D15" t="s">
         <v>309</v>
       </c>
       <c r="E15" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F15" t="s">
-        <v>353</v>
-      </c>
-      <c r="G15" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H15" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="I15" t="s">
-        <v>406</v>
+        <v>331</v>
       </c>
       <c r="J15" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -6469,139 +6478,139 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>20330051920352</v>
+        <v>20330051920350</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>275</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
         <v>310</v>
       </c>
       <c r="E16" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F16" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G16" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="H16" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="I16" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="J16" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>20330051920353</v>
+        <v>20330051920352</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
         <v>311</v>
       </c>
       <c r="E17" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F17" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G17" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H17" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="I17" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="J17" t="s">
-        <v>369</v>
+        <v>431</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>20330051920354</v>
+        <v>20330051920353</v>
       </c>
       <c r="B18" t="s">
-        <v>276</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
         <v>312</v>
       </c>
       <c r="E18" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F18" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G18" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="H18" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I18" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="J18" t="s">
-        <v>428</v>
+        <v>372</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>20330051920355</v>
+        <v>20330051920354</v>
       </c>
       <c r="B19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="E19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F19" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G19" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="H19" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I19" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="J19" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -6609,98 +6618,101 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>20330051920382</v>
+        <v>20330051920355</v>
       </c>
       <c r="B20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="E20" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F20" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G20" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="H20" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="I20" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="J20" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>19330050470596</v>
+        <v>20330051920382</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>278</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="E21" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F21" t="s">
-        <v>359</v>
+        <v>361</v>
+      </c>
+      <c r="G21" t="s">
+        <v>361</v>
       </c>
       <c r="H21" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="I21" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="J21" t="s">
-        <v>359</v>
+        <v>434</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>20330051920356</v>
+        <v>19330050470596</v>
       </c>
       <c r="B22" t="s">
-        <v>279</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>294</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>314</v>
       </c>
       <c r="E22" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F22" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H22" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="I22" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="J22" t="s">
-        <v>431</v>
+        <v>362</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -6708,10 +6720,10 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>20330051920357</v>
+        <v>20330051920356</v>
       </c>
       <c r="B23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C23" t="s">
         <v>295</v>
@@ -6720,59 +6732,91 @@
         <v>315</v>
       </c>
       <c r="E23" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F23" t="s">
-        <v>361</v>
-      </c>
-      <c r="G23" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="H23" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="I23" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="J23" t="s">
-        <v>361</v>
+        <v>435</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>20330051920383</v>
+        <v>20330051920357</v>
       </c>
       <c r="B24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>296</v>
       </c>
       <c r="D24" t="s">
         <v>316</v>
       </c>
       <c r="E24" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F24" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G24" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H24" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="I24" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="J24" t="s">
-        <v>432</v>
+        <v>364</v>
       </c>
       <c r="K24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>20330051920383</v>
+      </c>
+      <c r="B25" t="s">
+        <v>281</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>317</v>
+      </c>
+      <c r="E25" t="s">
+        <v>341</v>
+      </c>
+      <c r="F25" t="s">
+        <v>365</v>
+      </c>
+      <c r="G25" t="s">
+        <v>375</v>
+      </c>
+      <c r="H25" t="s">
+        <v>399</v>
+      </c>
+      <c r="I25" t="s">
+        <v>419</v>
+      </c>
+      <c r="J25" t="s">
+        <v>436</v>
+      </c>
+      <c r="K25">
         <v>1</v>
       </c>
     </row>
@@ -6838,28 +6882,28 @@
         <v>19330051920003</v>
       </c>
       <c r="B2" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D2" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="E2" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="F2" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H2" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="I2" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="J2" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -6870,28 +6914,28 @@
         <v>19330051920005</v>
       </c>
       <c r="B3" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="E3" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="F3" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="H3" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="I3" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="J3" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -6908,22 +6952,22 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="E4" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F4" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="H4" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="I4" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="J4" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -6934,31 +6978,31 @@
         <v>19330051920006</v>
       </c>
       <c r="B5" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C5" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="F5" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="G5" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="H5" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="I5" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="J5" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -6969,28 +7013,28 @@
         <v>19330051920417</v>
       </c>
       <c r="B6" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C6" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D6" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="E6" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="F6" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="H6" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="I6" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="J6" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -7004,25 +7048,25 @@
         <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="E7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="F7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="H7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="I7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="J7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -7033,31 +7077,31 @@
         <v>19330051920008</v>
       </c>
       <c r="B8" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C8" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D8" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E8" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="F8" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="G8" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="H8" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="I8" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="J8" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -7068,31 +7112,31 @@
         <v>19330051920014</v>
       </c>
       <c r="B9" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C9" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D9" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="E9" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F9" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="G9" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="H9" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="I9" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="J9" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -7103,31 +7147,31 @@
         <v>19330051920016</v>
       </c>
       <c r="B10" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="E10" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F10" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="G10" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="H10" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="I10" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="J10" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -7138,28 +7182,28 @@
         <v>19330051920015</v>
       </c>
       <c r="B11" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D11" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="E11" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="F11" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="G11" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="H11" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="I11" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -7170,31 +7214,31 @@
         <v>19330051920012</v>
       </c>
       <c r="B12" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C12" t="s">
         <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="E12" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="F12" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="G12" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="H12" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="I12" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="J12" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -7205,31 +7249,31 @@
         <v>19330051920011</v>
       </c>
       <c r="B13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C13" t="s">
         <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E13" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="F13" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="G13" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="H13" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="I13" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="J13" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -7240,28 +7284,28 @@
         <v>19330051920009</v>
       </c>
       <c r="B14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E14" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="F14" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="H14" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="I14" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="J14" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -7272,31 +7316,31 @@
         <v>19330051920010</v>
       </c>
       <c r="B15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C15" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D15" t="s">
         <v>307</v>
       </c>
       <c r="E15" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="F15" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="G15" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="H15" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="I15" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="J15" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -7310,28 +7354,28 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D16" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="E16" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="F16" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="G16" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="H16" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I16" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="J16" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -7345,25 +7389,25 @@
         <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D17" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="E17" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="F17" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="H17" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="I17" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="J17" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -7377,25 +7421,25 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D18" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E18" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="F18" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="H18" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="I18" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="J18" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -7412,22 +7456,22 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="E19" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="F19" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="H19" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="I19" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="J19" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -7444,25 +7488,25 @@
         <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="E20" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="F20" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="G20" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H20" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="I20" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="J20" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -7476,22 +7520,22 @@
         <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D21" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E21" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="F21" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="G21" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="H21" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -7505,28 +7549,28 @@
         <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D22" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E22" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="F22" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="G22" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H22" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="I22" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="J22" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -7537,31 +7581,31 @@
         <v>19330051920023</v>
       </c>
       <c r="B23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C23" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D23" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="E23" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="F23" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="G23" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="H23" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="I23" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="J23" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -7572,28 +7616,28 @@
         <v>19330051920026</v>
       </c>
       <c r="B24" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C24" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D24" t="s">
         <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="F24" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="H24" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="I24" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="J24" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -7607,28 +7651,28 @@
         <v>275</v>
       </c>
       <c r="C25" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D25" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="E25" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="F25" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="G25" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="H25" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="I25" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="J25" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -7639,31 +7683,31 @@
         <v>19330051920025</v>
       </c>
       <c r="B26" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="E26" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="F26" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="G26" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="H26" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="I26" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="J26" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -7674,28 +7718,28 @@
         <v>19330051920027</v>
       </c>
       <c r="B27" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="E27" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="F27" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="G27" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="H27" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="J27" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -7709,25 +7753,25 @@
         <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D28" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E28" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="F28" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H28" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I28" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="J28" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -7744,25 +7788,25 @@
         <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E29" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F29" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="G29" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="H29" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="I29" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="J29" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -7779,22 +7823,22 @@
         <v>57</v>
       </c>
       <c r="D30" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="E30" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="F30" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="G30" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="H30" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="J30" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -7811,25 +7855,25 @@
         <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="E31" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="F31" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="G31" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="H31" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="I31" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="J31" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -7840,31 +7884,31 @@
         <v>19330051920031</v>
       </c>
       <c r="B32" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C32" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D32" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="E32" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="F32" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G32" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="H32" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="I32" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="J32" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -7875,31 +7919,31 @@
         <v>19330051920035</v>
       </c>
       <c r="B33" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C33" t="s">
         <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="E33" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="F33" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="G33" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="H33" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="I33" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="J33" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -7910,28 +7954,28 @@
         <v>19330051920034</v>
       </c>
       <c r="B34" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C34" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D34" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="E34" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="F34" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="H34" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="I34" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="J34" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -7945,28 +7989,28 @@
         <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D35" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="E35" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="F35" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="G35" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="H35" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="I35" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="J35" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -7977,31 +8021,31 @@
         <v>19330051920037</v>
       </c>
       <c r="B36" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C36" t="s">
         <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="E36" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="F36" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="G36" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="H36" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="I36" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="J36" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -8012,28 +8056,28 @@
         <v>19330051920036</v>
       </c>
       <c r="B37" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C37" t="s">
         <v>43</v>
       </c>
       <c r="D37" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E37" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="F37" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="H37" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="I37" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="J37" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -8044,28 +8088,28 @@
         <v>19330051920039</v>
       </c>
       <c r="B38" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C38" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="D38" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="E38" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="F38" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="H38" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="I38" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="J38" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -8076,31 +8120,31 @@
         <v>19330051920040</v>
       </c>
       <c r="B39" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C39" t="s">
         <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E39" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="F39" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="G39" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="H39" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="I39" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="J39" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -8171,28 +8215,28 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="D2" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="E2" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="F2" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="G2" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="H2" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="I2" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="J2" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -8206,28 +8250,28 @@
         <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="D3" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="E3" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="F3" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="G3" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="H3" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="I3" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="J3" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -8238,31 +8282,31 @@
         <v>19330051920090</v>
       </c>
       <c r="B4" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="E4" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="F4" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="G4" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="H4" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="I4" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="J4" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -8273,31 +8317,31 @@
         <v>19330051920089</v>
       </c>
       <c r="B5" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="E5" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="F5" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="G5" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="H5" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="I5" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="J5" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -8308,31 +8352,31 @@
         <v>19330051920092</v>
       </c>
       <c r="B6" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C6" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D6" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="E6" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="F6" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="G6" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="H6" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="I6" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="J6" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -8343,28 +8387,28 @@
         <v>19330051920093</v>
       </c>
       <c r="B7" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C7" t="s">
         <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="E7" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="F7" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="H7" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="I7" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="J7" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -8378,22 +8422,22 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="D8" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="E8" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="F8" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="H8" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="J8" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -8404,28 +8448,28 @@
         <v>19330051920095</v>
       </c>
       <c r="B9" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C9" t="s">
         <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="E9" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="F9" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="H9" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="I9" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="J9" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -8436,31 +8480,31 @@
         <v>19330051920097</v>
       </c>
       <c r="B10" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C10" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="D10" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="E10" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="F10" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="G10" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="H10" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="I10" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="J10" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -8474,22 +8518,22 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D11" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="E11" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="F11" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="H11" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="J11" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -8503,25 +8547,25 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="D12" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="E12" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="F12" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="G12" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="H12" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="J12" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -8538,25 +8582,25 @@
         <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="E13" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="F13" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="G13" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="H13" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="I13" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="J13" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -8570,28 +8614,28 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="D14" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="E14" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="F14" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="G14" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="H14" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="I14" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="J14" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -8605,25 +8649,25 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="D15" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="E15" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="F15" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="H15" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="I15" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="J15" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -8637,28 +8681,28 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="D16" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="E16" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="F16" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="G16" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="H16" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="I16" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="J16" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -8672,28 +8716,28 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="D17" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="E17" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="F17" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="G17" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="H17" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="I17" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="J17" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -8704,31 +8748,31 @@
         <v>19330051920106</v>
       </c>
       <c r="B18" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="C18" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="D18" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="E18" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="F18" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="G18" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="H18" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="I18" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="J18" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -8739,31 +8783,31 @@
         <v>19330051920107</v>
       </c>
       <c r="B19" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="C19" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D19" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="E19" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="F19" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="G19" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="H19" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="I19" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="J19" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -8774,7 +8818,7 @@
         <v>19330051920109</v>
       </c>
       <c r="B20" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
@@ -8783,19 +8827,19 @@
         <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="F20" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="H20" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="I20" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="J20" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -8812,25 +8856,25 @@
         <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="E21" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="F21" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="G21" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="H21" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="I21" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="J21" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -8844,31 +8888,31 @@
         <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D22" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="E22" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="F22" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="G22" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="H22" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="I22" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="J22" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -8876,28 +8920,28 @@
         <v>19330051920001</v>
       </c>
       <c r="B23" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C23" t="s">
         <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="E23" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="F23" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="G23" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="H23" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="I23" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -8908,31 +8952,31 @@
         <v>19330051920115</v>
       </c>
       <c r="B24" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="E24" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="F24" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="H24" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="I24" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="J24" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -8943,25 +8987,25 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="D25" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="E25" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="F25" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="H25" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="I25" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="J25" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -8978,25 +9022,25 @@
         <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="E26" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="F26" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="G26" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="H26" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="I26" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="J26" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -9007,31 +9051,31 @@
         <v>19330051920118</v>
       </c>
       <c r="B27" t="s">
-        <v>687</v>
+        <v>291</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="E27" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="F27" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="G27" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="H27" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="I27" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="J27" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -9042,31 +9086,31 @@
         <v>19330051920119</v>
       </c>
       <c r="B28" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C28" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D28" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="E28" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="F28" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="G28" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="H28" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="I28" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="J28" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -9077,25 +9121,25 @@
         <v>19330051920120</v>
       </c>
       <c r="B29" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="C29" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="D29" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="E29" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="F29" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="H29" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="J29" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -9106,28 +9150,28 @@
         <v>19330051920121</v>
       </c>
       <c r="B30" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C30" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="D30" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="E30" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="F30" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="G30" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="H30" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="J30" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -9138,34 +9182,34 @@
         <v>19330051920122</v>
       </c>
       <c r="B31" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C31" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D31" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="E31" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="F31" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="G31" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="H31" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="I31" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="J31" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -9230,28 +9274,28 @@
         <v>19330051920223</v>
       </c>
       <c r="B2" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="C2" t="s">
         <v>278</v>
       </c>
       <c r="D2" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="E2" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="F2" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="G2" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="H2" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="J2" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -9262,31 +9306,31 @@
         <v>19330051920430</v>
       </c>
       <c r="B3" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="E3" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="F3" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="G3" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="H3" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="I3" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="J3" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -9297,31 +9341,31 @@
         <v>19330051920225</v>
       </c>
       <c r="B4" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="E4" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="F4" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="G4" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="H4" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="I4" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="J4" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -9332,28 +9376,31 @@
         <v>19330051920226</v>
       </c>
       <c r="B5" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="C5" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="D5" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="E5" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="F5" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="H5" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="I5" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="J5" t="s">
-        <v>1030</v>
+        <v>1033</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -9361,31 +9408,31 @@
         <v>19330051920227</v>
       </c>
       <c r="B6" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="E6" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="F6" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="G6" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="H6" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="I6" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="J6" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -9396,31 +9443,31 @@
         <v>19330051920229</v>
       </c>
       <c r="B7" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="E7" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="F7" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="G7" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="H7" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="I7" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="J7" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -9431,31 +9478,31 @@
         <v>19330051920230</v>
       </c>
       <c r="B8" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="C8" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="D8" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="E8" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="F8" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="G8" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="H8" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="I8" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="J8" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -9466,31 +9513,31 @@
         <v>19330051920231</v>
       </c>
       <c r="B9" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="C9" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="D9" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="E9" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="F9" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="G9" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="H9" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="I9" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="J9" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -9504,28 +9551,28 @@
         <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D10" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="E10" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="F10" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="G10" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="H10" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="I10" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="J10" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -9536,31 +9583,31 @@
         <v>19330051920233</v>
       </c>
       <c r="B11" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="C11" t="s">
         <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="E11" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="F11" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="G11" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="H11" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="I11" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="J11" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -9571,31 +9618,31 @@
         <v>19330051920234</v>
       </c>
       <c r="B12" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="C12" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="D12" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="E12" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="F12" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="G12" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="H12" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="I12" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="J12" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -9609,25 +9656,25 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="D13" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="E13" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="F13" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="G13" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="H13" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="J13" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -9638,31 +9685,31 @@
         <v>19330051920235</v>
       </c>
       <c r="B14" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="E14" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="F14" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="G14" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="H14" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="I14" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="J14" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -9673,28 +9720,28 @@
         <v>19330051920236</v>
       </c>
       <c r="B15" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="E15" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="F15" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="H15" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="I15" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="J15" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -9705,31 +9752,31 @@
         <v>19330051920237</v>
       </c>
       <c r="B16" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="C16" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="D16" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="E16" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="F16" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="G16" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="H16" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="I16" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="J16" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -9740,31 +9787,31 @@
         <v>19330051920228</v>
       </c>
       <c r="B17" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="C17" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="D17" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="E17" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="F17" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="G17" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="H17" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="I17" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="J17" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -9778,28 +9825,28 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="D18" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="E18" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="F18" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="G18" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="H18" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="I18" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="J18" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -9810,28 +9857,28 @@
         <v>19330051920404</v>
       </c>
       <c r="B19" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="C19" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="D19" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="E19" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="F19" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="H19" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="I19" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="J19" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -9842,31 +9889,31 @@
         <v>19330051920240</v>
       </c>
       <c r="B20" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C20" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="D20" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="E20" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="F20" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="G20" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="H20" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="I20" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="J20" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -9877,31 +9924,31 @@
         <v>19330051920239</v>
       </c>
       <c r="B21" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="C21" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="D21" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="E21" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="F21" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="G21" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="H21" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="I21" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="J21" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -9918,25 +9965,25 @@
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="E22" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="F22" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="G22" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="H22" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="I22" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="J22" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -9950,25 +9997,25 @@
         <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="D23" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="E23" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="F23" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="H23" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="I23" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="J23" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -9985,22 +10032,22 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="E24" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="F24" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="G24" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="H24" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="J24" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -10014,25 +10061,25 @@
         <v>279</v>
       </c>
       <c r="C25" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="D25" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="E25" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="F25" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="H25" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="I25" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="J25" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -10100,28 +10147,28 @@
         <v>19330051920246</v>
       </c>
       <c r="B2" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="E2" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="F2" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="G2" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="H2" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
       <c r="J2" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -10132,28 +10179,28 @@
         <v>19330051920247</v>
       </c>
       <c r="B3" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="E3" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="F3" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="H3" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="I3" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="J3" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -10164,31 +10211,31 @@
         <v>19330051920248</v>
       </c>
       <c r="B4" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C4" t="s">
         <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="E4" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="F4" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="G4" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="H4" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="I4" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="J4" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -10199,31 +10246,31 @@
         <v>19330051920249</v>
       </c>
       <c r="B5" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="C5" t="s">
         <v>288</v>
       </c>
       <c r="D5" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="E5" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="F5" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="G5" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="H5" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="I5" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="J5" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -10237,28 +10284,28 @@
         <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="D6" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="E6" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="F6" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="G6" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="H6" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="I6" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="J6" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -10278,22 +10325,22 @@
         <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="F7" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="G7" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="H7" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="I7" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="J7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -10307,25 +10354,25 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D8" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="E8" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="F8" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="G8" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="H8" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="I8" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -10336,28 +10383,28 @@
         <v>19330051920253</v>
       </c>
       <c r="B9" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="C9" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="D9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E9" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="F9" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="H9" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="I9" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="J9" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -10374,25 +10421,25 @@
         <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="E10" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="F10" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="G10" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="H10" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="I10" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="J10" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -10406,28 +10453,28 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="D11" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="E11" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="F11" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="G11" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="H11" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="I11" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="J11" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -10444,25 +10491,25 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="E12" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="F12" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="G12" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="H12" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="I12" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
       <c r="J12" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -10476,28 +10523,28 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="D13" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="E13" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="F13" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="G13" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="H13" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="I13" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="J13" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -10511,28 +10558,28 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="D14" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="E14" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="F14" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="G14" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="H14" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="I14" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="J14" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -10546,25 +10593,25 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="D15" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="E15" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="F15" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="G15" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="H15" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="I15" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -10578,28 +10625,28 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="D16" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="E16" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="F16" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="G16" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="H16" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="I16" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="J16" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -10610,31 +10657,31 @@
         <v>19330051920260</v>
       </c>
       <c r="B17" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="C17" t="s">
         <v>279</v>
       </c>
       <c r="D17" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="E17" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="F17" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="G17" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="H17" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="I17" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="J17" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -10648,28 +10695,28 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="D18" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E18" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="F18" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="G18" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="H18" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="I18" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="J18" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -10680,31 +10727,31 @@
         <v>19330051920261</v>
       </c>
       <c r="B19" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="C19" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="D19" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="E19" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="F19" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="G19" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="H19" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="I19" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="J19" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -10715,22 +10762,22 @@
         <v>19330051920265</v>
       </c>
       <c r="B20" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="E20" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="F20" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="H20" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -10741,31 +10788,31 @@
         <v>19330051920267</v>
       </c>
       <c r="B21" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="C21" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="D21" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="E21" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="F21" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="G21" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="H21" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="I21" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="J21" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -10776,22 +10823,22 @@
         <v>19330051920266</v>
       </c>
       <c r="B22" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="C22" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="D22" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="E22" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="F22" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="H22" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -10805,28 +10852,28 @@
         <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="D23" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E23" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="F23" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="G23" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="H23" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="I23" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="J23" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -10837,28 +10884,28 @@
         <v>19330051920400</v>
       </c>
       <c r="B24" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="C24" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="D24" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="E24" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="F24" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="H24" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="I24" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="J24" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -10872,28 +10919,28 @@
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D25" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="E25" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="F25" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="G25" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="H25" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="I25" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="J25" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -10904,31 +10951,31 @@
         <v>19330051920348</v>
       </c>
       <c r="B26" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C26" t="s">
         <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="E26" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="F26" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="G26" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="H26" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="I26" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="J26" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -10942,28 +10989,28 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="D27" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="E27" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="F27" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="G27" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="H27" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="I27" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="J27" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -10980,25 +11027,25 @@
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="E28" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="F28" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="G28" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="H28" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="I28" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="J28" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -11015,22 +11062,22 @@
         <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="E29" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="F29" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="H29" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="I29" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="J29" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -11047,22 +11094,22 @@
         <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="E30" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="G30" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="H30" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="I30" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="J30" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -11076,28 +11123,28 @@
         <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="D31" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="E31" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="F31" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="G31" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="H31" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="I31" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="J31" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -11108,25 +11155,25 @@
         <v>19330051920412</v>
       </c>
       <c r="B32" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="C32" t="s">
         <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="E32" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="F32" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="H32" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="I32" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -11137,22 +11184,22 @@
         <v>19330051920414</v>
       </c>
       <c r="B33" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="C33" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="D33" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="E33" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="F33" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="H33" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -11220,28 +11267,28 @@
         <v>19330051920186</v>
       </c>
       <c r="B2" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="E2" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="F2" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="H2" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="I2" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="J2" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -11252,31 +11299,31 @@
         <v>19330051920185</v>
       </c>
       <c r="B3" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
       <c r="C3" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="D3" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="E3" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="F3" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="G3" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="H3" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="I3" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="J3" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -11287,31 +11334,31 @@
         <v>19330051920187</v>
       </c>
       <c r="B4" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="C4" t="s">
         <v>285</v>
       </c>
       <c r="D4" t="s">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="E4" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="F4" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="G4" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="H4" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="I4" t="s">
-        <v>1419</v>
+        <v>1422</v>
       </c>
       <c r="J4" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -11322,31 +11369,31 @@
         <v>19330051920189</v>
       </c>
       <c r="B5" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="C5" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="D5" t="s">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="E5" t="s">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="F5" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
       <c r="G5" t="s">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="H5" t="s">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="I5" t="s">
-        <v>1420</v>
+        <v>1423</v>
       </c>
       <c r="J5" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -11357,25 +11404,25 @@
         <v>19330051920190</v>
       </c>
       <c r="B6" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="E6" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="F6" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="G6" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="H6" t="s">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -11392,25 +11439,25 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="E7" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="F7" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="G7" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="H7" t="s">
-        <v>1389</v>
+        <v>1392</v>
       </c>
       <c r="I7" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="J7" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -11421,28 +11468,28 @@
         <v>19330051920194</v>
       </c>
       <c r="B8" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>1284</v>
+        <v>1287</v>
       </c>
       <c r="E8" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="F8" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="H8" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
       <c r="I8" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="J8" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -11456,25 +11503,25 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="D9" t="s">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="E9" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="F9" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="G9" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="H9" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="J9" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -11485,31 +11532,31 @@
         <v>19330051920195</v>
       </c>
       <c r="B10" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="C10" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="D10" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="E10" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="F10" t="s">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="G10" t="s">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="H10" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="I10" t="s">
-        <v>1423</v>
+        <v>1426</v>
       </c>
       <c r="J10" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -11523,28 +11570,28 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="D11" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="E11" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="F11" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="G11" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
       <c r="H11" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="I11" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="J11" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -11555,28 +11602,28 @@
         <v>19330051920196</v>
       </c>
       <c r="B12" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="C12" t="s">
         <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="E12" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="F12" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="H12" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="I12" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="J12" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -11590,28 +11637,28 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="D13" t="s">
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="F13" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="G13" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="H13" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
       <c r="I13" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="J13" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -11622,31 +11669,31 @@
         <v>19330051920199</v>
       </c>
       <c r="B14" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="E14" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="F14" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="G14" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="H14" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="I14" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="J14" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -11657,31 +11704,31 @@
         <v>19330051920200</v>
       </c>
       <c r="B15" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="C15" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="D15" t="s">
         <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="F15" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="G15" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="H15" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="I15" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="J15" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -11695,28 +11742,28 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="D16" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="E16" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="F16" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="G16" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="H16" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="I16" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="J16" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -11727,28 +11774,28 @@
         <v>19330051920202</v>
       </c>
       <c r="B17" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="E17" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="F17" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
       <c r="G17" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="H17" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="J17" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -11759,28 +11806,28 @@
         <v>19330051920203</v>
       </c>
       <c r="B18" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="C18" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="D18" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="E18" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="F18" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="H18" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="I18" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="J18" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -11797,22 +11844,22 @@
         <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="E19" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="F19" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="H19" t="s">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="I19" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="J19" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -11823,31 +11870,31 @@
         <v>19330051920206</v>
       </c>
       <c r="B20" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="C20" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="D20" t="s">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="E20" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="F20" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="G20" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="H20" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
       <c r="I20" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="J20" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -11858,28 +11905,28 @@
         <v>19330051920207</v>
       </c>
       <c r="B21" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="C21" t="s">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="D21" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="E21" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="F21" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
       <c r="H21" t="s">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="I21" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="J21" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -11890,28 +11937,28 @@
         <v>19330051920209</v>
       </c>
       <c r="B22" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="E22" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="F22" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="G22" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="H22" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
       <c r="J22" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -11928,25 +11975,25 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="E23" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="F23" t="s">
-        <v>1360</v>
+        <v>1363</v>
       </c>
       <c r="G23" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="H23" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="I23" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="J23" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -11963,25 +12010,25 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="E24" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="F24" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="G24" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="H24" t="s">
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="I24" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="J24" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -11992,7 +12039,7 @@
         <v>19330051920212</v>
       </c>
       <c r="B25" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
@@ -12001,19 +12048,19 @@
         <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="F25" t="s">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="H25" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="I25" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="J25" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -12030,25 +12077,25 @@
         <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="E26" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="F26" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="G26" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
       <c r="H26" t="s">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="I26" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="J26" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -12065,25 +12112,25 @@
         <v>276</v>
       </c>
       <c r="D27" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="E27" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="F27" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="G27" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="H27" t="s">
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="I27" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="J27" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -12097,22 +12144,22 @@
         <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="D28" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="E28" t="s">
-        <v>1332</v>
+        <v>1335</v>
       </c>
       <c r="F28" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="H28" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
       <c r="J28" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -12123,31 +12170,31 @@
         <v>19330051920218</v>
       </c>
       <c r="B29" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="C29" t="s">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="D29" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="E29" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="F29" t="s">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="G29" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
       <c r="H29" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="I29" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="J29" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -12158,25 +12205,25 @@
         <v>19330051920220</v>
       </c>
       <c r="B30" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C30" t="s">
         <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="E30" t="s">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="F30" t="s">
-        <v>1367</v>
+        <v>1370</v>
       </c>
       <c r="H30" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="J30" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -12187,31 +12234,31 @@
         <v>19330051920439</v>
       </c>
       <c r="B31" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="E31" t="s">
-        <v>1335</v>
+        <v>1338</v>
       </c>
       <c r="F31" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="G31" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="H31" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="I31" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="J31" t="s">
-        <v>1465</v>
+        <v>1468</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -12228,19 +12275,19 @@
         <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="E32" t="s">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="F32" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
       <c r="H32" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="J32" t="s">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -12251,28 +12298,28 @@
         <v>19330051920221</v>
       </c>
       <c r="B33" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="C33" t="s">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="D33" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="E33" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="F33" t="s">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="H33" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="I33" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="J33" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -12283,28 +12330,28 @@
         <v>18330051920351</v>
       </c>
       <c r="B34" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="C34" t="s">
         <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="E34" t="s">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="F34" t="s">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="H34" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="I34" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="J34" t="s">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="K34">
         <v>1</v>

--- a/Ortega Valle Manuel 20212.xlsx
+++ b/Ortega Valle Manuel 20212.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="1472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="1480">
   <si>
     <t>NC</t>
   </si>
@@ -2077,6 +2077,9 @@
     <t>2721972586</t>
   </si>
   <si>
+    <t>CADEZA</t>
+  </si>
+  <si>
     <t>CONDADO</t>
   </si>
   <si>
@@ -2110,6 +2113,9 @@
     <t>TEZOCO</t>
   </si>
   <si>
+    <t>GALLARDO</t>
+  </si>
+  <si>
     <t>GARATE</t>
   </si>
   <si>
@@ -2149,6 +2155,9 @@
     <t>JOSE ANTONIO</t>
   </si>
   <si>
+    <t>IRVING OTTONIEL</t>
+  </si>
+  <si>
     <t>BRAYAN</t>
   </si>
   <si>
@@ -2227,6 +2236,9 @@
     <t>tezocoaguilar06@gmail.com</t>
   </si>
   <si>
+    <t>irving12gallardo@gmail.com</t>
+  </si>
+  <si>
     <t>bcastillorojas981@gmail.com</t>
   </si>
   <si>
@@ -2317,6 +2329,9 @@
     <t>2727843486</t>
   </si>
   <si>
+    <t>2721796968</t>
+  </si>
+  <si>
     <t>5565129100</t>
   </si>
   <si>
@@ -2440,6 +2455,9 @@
     <t>ANTONIO AGUILAR TEXOCO</t>
   </si>
   <si>
+    <t>WENDY ELIZABETH GALLARDO SANDRIA</t>
+  </si>
+  <si>
     <t>JOSÉ EBER CASTILLO MARÍN</t>
   </si>
   <si>
@@ -2527,6 +2545,9 @@
     <t>antonioaguilar0826@gmail.com</t>
   </si>
   <si>
+    <t>wendy27gallardo@gmail.com</t>
+  </si>
+  <si>
     <t>nikolasr848@gmail.com</t>
   </si>
   <si>
@@ -2591,6 +2612,9 @@
   </si>
   <si>
     <t>2721830619</t>
+  </si>
+  <si>
+    <t>2721721543</t>
   </si>
   <si>
     <t>2723563922</t>
@@ -8157,7 +8181,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8215,28 +8239,28 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D2" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="F2" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="G2" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="H2" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="I2" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="J2" t="s">
-        <v>855</v>
+        <v>862</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -8250,28 +8274,28 @@
         <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D3" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="E3" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="F3" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="G3" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="H3" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="I3" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="J3" t="s">
-        <v>856</v>
+        <v>863</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -8279,42 +8303,36 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>19330051920090</v>
+        <v>19330051920088</v>
       </c>
       <c r="B4" t="s">
-        <v>467</v>
+        <v>685</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>697</v>
       </c>
       <c r="D4" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="E4" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="F4" t="s">
-        <v>765</v>
-      </c>
-      <c r="G4" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="H4" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="I4" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="J4" t="s">
-        <v>857</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
+        <v>864</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>19330051920089</v>
+        <v>19330051920090</v>
       </c>
       <c r="B5" t="s">
         <v>467</v>
@@ -8323,25 +8341,25 @@
         <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E5" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="F5" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="G5" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="H5" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="I5" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="J5" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -8349,34 +8367,34 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>19330051920092</v>
+        <v>19330051920089</v>
       </c>
       <c r="B6" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="C6" t="s">
-        <v>464</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="E6" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="F6" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="G6" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="H6" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="I6" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="J6" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -8384,325 +8402,325 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>19330051920093</v>
+        <v>19330051920092</v>
       </c>
       <c r="B7" t="s">
-        <v>685</v>
+        <v>441</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>464</v>
       </c>
       <c r="D7" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="E7" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="F7" t="s">
-        <v>768</v>
+        <v>772</v>
+      </c>
+      <c r="G7" t="s">
+        <v>772</v>
       </c>
       <c r="H7" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="I7" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="J7" t="s">
-        <v>859</v>
+        <v>866</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>19330051920094</v>
+        <v>19330051920093</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>686</v>
       </c>
       <c r="C8" t="s">
-        <v>696</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="E8" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="F8" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="H8" t="s">
-        <v>809</v>
+        <v>814</v>
+      </c>
+      <c r="I8" t="s">
+        <v>845</v>
       </c>
       <c r="J8" t="s">
-        <v>860</v>
+        <v>867</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>19330051920095</v>
+        <v>19330051920094</v>
       </c>
       <c r="B9" t="s">
-        <v>442</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>698</v>
       </c>
       <c r="D9" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E9" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="F9" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="H9" t="s">
-        <v>810</v>
-      </c>
-      <c r="I9" t="s">
-        <v>839</v>
+        <v>815</v>
       </c>
       <c r="J9" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>19330051920097</v>
+        <v>19330051920095</v>
       </c>
       <c r="B10" t="s">
-        <v>686</v>
+        <v>442</v>
       </c>
       <c r="C10" t="s">
-        <v>697</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="E10" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="F10" t="s">
-        <v>771</v>
-      </c>
-      <c r="G10" t="s">
-        <v>793</v>
+        <v>775</v>
       </c>
       <c r="H10" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="I10" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="J10" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>19330051920098</v>
+        <v>19330051920097</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>687</v>
       </c>
       <c r="C11" t="s">
-        <v>442</v>
+        <v>699</v>
       </c>
       <c r="D11" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="E11" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="F11" t="s">
-        <v>772</v>
+        <v>776</v>
+      </c>
+      <c r="G11" t="s">
+        <v>798</v>
       </c>
       <c r="H11" t="s">
-        <v>812</v>
+        <v>817</v>
+      </c>
+      <c r="I11" t="s">
+        <v>847</v>
       </c>
       <c r="J11" t="s">
-        <v>863</v>
+        <v>870</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>19330051920099</v>
+        <v>19330051920098</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>698</v>
+        <v>442</v>
       </c>
       <c r="D12" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="E12" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="F12" t="s">
-        <v>773</v>
-      </c>
-      <c r="G12" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="H12" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="J12" t="s">
-        <v>864</v>
+        <v>871</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>19330051920100</v>
+        <v>19330051920099</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>700</v>
       </c>
       <c r="D13" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="E13" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="F13" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="G13" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="H13" t="s">
-        <v>814</v>
-      </c>
-      <c r="I13" t="s">
-        <v>841</v>
+        <v>819</v>
       </c>
       <c r="J13" t="s">
-        <v>865</v>
+        <v>872</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>19330051920101</v>
+        <v>19330051920100</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>699</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E14" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="F14" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="G14" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="H14" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="I14" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="J14" t="s">
-        <v>866</v>
+        <v>873</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>19330051920102</v>
+        <v>19330051920101</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D15" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="E15" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="F15" t="s">
-        <v>776</v>
+        <v>780</v>
+      </c>
+      <c r="G15" t="s">
+        <v>800</v>
       </c>
       <c r="H15" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="I15" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="J15" t="s">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>19330051920105</v>
+        <v>19330051920102</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D16" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E16" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="F16" t="s">
-        <v>777</v>
-      </c>
-      <c r="G16" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="H16" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="I16" t="s">
-        <v>747</v>
+        <v>850</v>
       </c>
       <c r="J16" t="s">
-        <v>868</v>
+        <v>875</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -8710,69 +8728,69 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>19330051920103</v>
+        <v>19330051920105</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D17" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="E17" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="F17" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="G17" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="H17" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="I17" t="s">
-        <v>844</v>
+        <v>751</v>
       </c>
       <c r="J17" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>19330051920106</v>
+        <v>19330051920103</v>
       </c>
       <c r="B18" t="s">
-        <v>687</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D18" t="s">
-        <v>481</v>
+        <v>725</v>
       </c>
       <c r="E18" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="F18" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="G18" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="H18" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="I18" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="J18" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -8780,66 +8798,69 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>19330051920107</v>
+        <v>19330051920106</v>
       </c>
       <c r="B19" t="s">
         <v>688</v>
       </c>
       <c r="C19" t="s">
-        <v>442</v>
+        <v>705</v>
       </c>
       <c r="D19" t="s">
-        <v>723</v>
+        <v>481</v>
       </c>
       <c r="E19" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="F19" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="G19" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="H19" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="I19" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="J19" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>19330051920109</v>
+        <v>19330051920107</v>
       </c>
       <c r="B20" t="s">
         <v>689</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>442</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>726</v>
       </c>
       <c r="E20" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="F20" t="s">
-        <v>781</v>
+        <v>785</v>
+      </c>
+      <c r="G20" t="s">
+        <v>803</v>
       </c>
       <c r="H20" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="I20" t="s">
-        <v>751</v>
+        <v>853</v>
       </c>
       <c r="J20" t="s">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -8847,34 +8868,31 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>19330051920110</v>
+        <v>19330051920109</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>690</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>724</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="F21" t="s">
-        <v>782</v>
-      </c>
-      <c r="G21" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="H21" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="I21" t="s">
-        <v>847</v>
+        <v>755</v>
       </c>
       <c r="J21" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -8882,66 +8900,69 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>19330051920112</v>
+        <v>19330051920110</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>442</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="E22" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="F22" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="G22" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="H22" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="I22" t="s">
-        <v>753</v>
+        <v>854</v>
       </c>
       <c r="J22" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>19330051920001</v>
+        <v>19330051920112</v>
       </c>
       <c r="B23" t="s">
-        <v>468</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>442</v>
       </c>
       <c r="D23" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="E23" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="F23" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="G23" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="H23" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="I23" t="s">
-        <v>848</v>
+        <v>757</v>
+      </c>
+      <c r="J23" t="s">
+        <v>882</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -8949,31 +8970,31 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>19330051920115</v>
+        <v>19330051920001</v>
       </c>
       <c r="B24" t="s">
-        <v>690</v>
+        <v>468</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>708</v>
+        <v>729</v>
       </c>
       <c r="E24" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="F24" t="s">
-        <v>785</v>
+        <v>789</v>
+      </c>
+      <c r="G24" t="s">
+        <v>804</v>
       </c>
       <c r="H24" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="I24" t="s">
-        <v>849</v>
-      </c>
-      <c r="J24" t="s">
-        <v>875</v>
+        <v>855</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -8981,136 +9002,133 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>19330051920116</v>
+        <v>19330051920115</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>691</v>
       </c>
       <c r="C25" t="s">
-        <v>704</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E25" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="F25" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="H25" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="I25" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="J25" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>19330051920117</v>
+        <v>19330051920116</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>706</v>
       </c>
       <c r="D26" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="E26" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="F26" t="s">
-        <v>787</v>
-      </c>
-      <c r="G26" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="H26" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="I26" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="J26" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>19330051920118</v>
+        <v>19330051920117</v>
       </c>
       <c r="B27" t="s">
-        <v>291</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="E27" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="F27" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="G27" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="H27" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="I27" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="J27" t="s">
-        <v>878</v>
+        <v>885</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>19330051920119</v>
+        <v>19330051920118</v>
       </c>
       <c r="B28" t="s">
-        <v>691</v>
+        <v>291</v>
       </c>
       <c r="C28" t="s">
-        <v>292</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="E28" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="F28" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="G28" t="s">
-        <v>789</v>
+        <v>806</v>
       </c>
       <c r="H28" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="I28" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="J28" t="s">
-        <v>789</v>
+        <v>886</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -9118,28 +9136,34 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>19330051920120</v>
+        <v>19330051920119</v>
       </c>
       <c r="B29" t="s">
         <v>692</v>
       </c>
       <c r="C29" t="s">
-        <v>705</v>
+        <v>292</v>
       </c>
       <c r="D29" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="E29" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="F29" t="s">
-        <v>790</v>
+        <v>794</v>
+      </c>
+      <c r="G29" t="s">
+        <v>794</v>
       </c>
       <c r="H29" t="s">
-        <v>830</v>
+        <v>835</v>
+      </c>
+      <c r="I29" t="s">
+        <v>860</v>
       </c>
       <c r="J29" t="s">
-        <v>879</v>
+        <v>794</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -9147,68 +9171,97 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>19330051920121</v>
+        <v>19330051920120</v>
       </c>
       <c r="B30" t="s">
-        <v>464</v>
+        <v>693</v>
       </c>
       <c r="C30" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D30" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="E30" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="F30" t="s">
-        <v>791</v>
-      </c>
-      <c r="G30" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="H30" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="J30" t="s">
-        <v>880</v>
+        <v>887</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
+        <v>19330051920121</v>
+      </c>
+      <c r="B31" t="s">
+        <v>464</v>
+      </c>
+      <c r="C31" t="s">
+        <v>708</v>
+      </c>
+      <c r="D31" t="s">
+        <v>734</v>
+      </c>
+      <c r="E31" t="s">
+        <v>765</v>
+      </c>
+      <c r="F31" t="s">
+        <v>796</v>
+      </c>
+      <c r="G31" t="s">
+        <v>807</v>
+      </c>
+      <c r="H31" t="s">
+        <v>837</v>
+      </c>
+      <c r="J31" t="s">
+        <v>888</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
         <v>19330051920122</v>
       </c>
-      <c r="B31" t="s">
-        <v>693</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B32" t="s">
+        <v>694</v>
+      </c>
+      <c r="C32" t="s">
         <v>459</v>
       </c>
-      <c r="D31" t="s">
-        <v>732</v>
-      </c>
-      <c r="E31" t="s">
-        <v>762</v>
-      </c>
-      <c r="F31" t="s">
-        <v>792</v>
-      </c>
-      <c r="G31" t="s">
-        <v>803</v>
-      </c>
-      <c r="H31" t="s">
-        <v>832</v>
-      </c>
-      <c r="I31" t="s">
-        <v>854</v>
-      </c>
-      <c r="J31" t="s">
-        <v>803</v>
-      </c>
-      <c r="K31">
+      <c r="D32" t="s">
+        <v>735</v>
+      </c>
+      <c r="E32" t="s">
+        <v>766</v>
+      </c>
+      <c r="F32" t="s">
+        <v>797</v>
+      </c>
+      <c r="G32" t="s">
+        <v>808</v>
+      </c>
+      <c r="H32" t="s">
+        <v>838</v>
+      </c>
+      <c r="I32" t="s">
+        <v>861</v>
+      </c>
+      <c r="J32" t="s">
+        <v>808</v>
+      </c>
+      <c r="K32">
         <v>2</v>
       </c>
     </row>
@@ -9274,28 +9327,28 @@
         <v>19330051920223</v>
       </c>
       <c r="B2" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="C2" t="s">
         <v>278</v>
       </c>
       <c r="D2" t="s">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="E2" t="s">
-        <v>929</v>
+        <v>937</v>
       </c>
       <c r="F2" t="s">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="G2" t="s">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="H2" t="s">
-        <v>988</v>
+        <v>996</v>
       </c>
       <c r="J2" t="s">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -9306,31 +9359,31 @@
         <v>19330051920430</v>
       </c>
       <c r="B3" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="E3" t="s">
-        <v>930</v>
+        <v>938</v>
       </c>
       <c r="F3" t="s">
-        <v>954</v>
+        <v>962</v>
       </c>
       <c r="G3" t="s">
-        <v>977</v>
+        <v>985</v>
       </c>
       <c r="H3" t="s">
-        <v>989</v>
+        <v>997</v>
       </c>
       <c r="I3" t="s">
-        <v>1012</v>
+        <v>1020</v>
       </c>
       <c r="J3" t="s">
-        <v>1031</v>
+        <v>1039</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -9341,31 +9394,31 @@
         <v>19330051920225</v>
       </c>
       <c r="B4" t="s">
-        <v>883</v>
+        <v>891</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="E4" t="s">
-        <v>931</v>
+        <v>939</v>
       </c>
       <c r="F4" t="s">
-        <v>955</v>
+        <v>963</v>
       </c>
       <c r="G4" t="s">
-        <v>955</v>
+        <v>963</v>
       </c>
       <c r="H4" t="s">
-        <v>990</v>
+        <v>998</v>
       </c>
       <c r="I4" t="s">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="J4" t="s">
-        <v>1032</v>
+        <v>1040</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -9376,28 +9429,28 @@
         <v>19330051920226</v>
       </c>
       <c r="B5" t="s">
-        <v>884</v>
+        <v>892</v>
       </c>
       <c r="C5" t="s">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="D5" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
       <c r="E5" t="s">
-        <v>932</v>
+        <v>940</v>
       </c>
       <c r="F5" t="s">
-        <v>956</v>
+        <v>964</v>
       </c>
       <c r="H5" t="s">
-        <v>991</v>
+        <v>999</v>
       </c>
       <c r="I5" t="s">
-        <v>1014</v>
+        <v>1022</v>
       </c>
       <c r="J5" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -9408,31 +9461,31 @@
         <v>19330051920227</v>
       </c>
       <c r="B6" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
       <c r="E6" t="s">
-        <v>933</v>
+        <v>941</v>
       </c>
       <c r="F6" t="s">
-        <v>957</v>
+        <v>965</v>
       </c>
       <c r="G6" t="s">
-        <v>978</v>
+        <v>986</v>
       </c>
       <c r="H6" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="I6" t="s">
-        <v>1015</v>
+        <v>1023</v>
       </c>
       <c r="J6" t="s">
-        <v>1034</v>
+        <v>1042</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -9443,31 +9496,31 @@
         <v>19330051920229</v>
       </c>
       <c r="B7" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="E7" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="F7" t="s">
-        <v>958</v>
+        <v>966</v>
       </c>
       <c r="G7" t="s">
-        <v>979</v>
+        <v>987</v>
       </c>
       <c r="H7" t="s">
-        <v>993</v>
+        <v>1001</v>
       </c>
       <c r="I7" t="s">
-        <v>1016</v>
+        <v>1024</v>
       </c>
       <c r="J7" t="s">
-        <v>1035</v>
+        <v>1043</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -9478,31 +9531,31 @@
         <v>19330051920230</v>
       </c>
       <c r="B8" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="C8" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
       <c r="D8" t="s">
-        <v>912</v>
+        <v>920</v>
       </c>
       <c r="E8" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="F8" t="s">
-        <v>959</v>
+        <v>967</v>
       </c>
       <c r="G8" t="s">
-        <v>959</v>
+        <v>967</v>
       </c>
       <c r="H8" t="s">
-        <v>994</v>
+        <v>1002</v>
       </c>
       <c r="I8" t="s">
-        <v>1017</v>
+        <v>1025</v>
       </c>
       <c r="J8" t="s">
-        <v>1036</v>
+        <v>1044</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -9513,31 +9566,31 @@
         <v>19330051920231</v>
       </c>
       <c r="B9" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="C9" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
       <c r="D9" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="E9" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
       <c r="F9" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="G9" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
       <c r="H9" t="s">
-        <v>995</v>
+        <v>1003</v>
       </c>
       <c r="I9" t="s">
-        <v>1018</v>
+        <v>1026</v>
       </c>
       <c r="J9" t="s">
-        <v>1037</v>
+        <v>1045</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -9554,25 +9607,25 @@
         <v>464</v>
       </c>
       <c r="D10" t="s">
-        <v>914</v>
+        <v>922</v>
       </c>
       <c r="E10" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="F10" t="s">
-        <v>961</v>
+        <v>969</v>
       </c>
       <c r="G10" t="s">
-        <v>961</v>
+        <v>969</v>
       </c>
       <c r="H10" t="s">
-        <v>996</v>
+        <v>1004</v>
       </c>
       <c r="I10" t="s">
-        <v>1019</v>
+        <v>1027</v>
       </c>
       <c r="J10" t="s">
-        <v>1038</v>
+        <v>1046</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -9583,31 +9636,31 @@
         <v>19330051920233</v>
       </c>
       <c r="B11" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
       <c r="C11" t="s">
         <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="E11" t="s">
-        <v>938</v>
+        <v>946</v>
       </c>
       <c r="F11" t="s">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="G11" t="s">
-        <v>980</v>
+        <v>988</v>
       </c>
       <c r="H11" t="s">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="I11" t="s">
-        <v>1020</v>
+        <v>1028</v>
       </c>
       <c r="J11" t="s">
-        <v>1039</v>
+        <v>1047</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -9618,31 +9671,31 @@
         <v>19330051920234</v>
       </c>
       <c r="B12" t="s">
-        <v>889</v>
+        <v>897</v>
       </c>
       <c r="C12" t="s">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="D12" t="s">
-        <v>915</v>
+        <v>923</v>
       </c>
       <c r="E12" t="s">
-        <v>939</v>
+        <v>947</v>
       </c>
       <c r="F12" t="s">
-        <v>963</v>
+        <v>971</v>
       </c>
       <c r="G12" t="s">
-        <v>981</v>
+        <v>989</v>
       </c>
       <c r="H12" t="s">
-        <v>998</v>
+        <v>1006</v>
       </c>
       <c r="I12" t="s">
-        <v>1021</v>
+        <v>1029</v>
       </c>
       <c r="J12" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -9656,25 +9709,25 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>899</v>
+        <v>907</v>
       </c>
       <c r="D13" t="s">
-        <v>916</v>
+        <v>924</v>
       </c>
       <c r="E13" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="F13" t="s">
-        <v>964</v>
+        <v>972</v>
       </c>
       <c r="G13" t="s">
-        <v>982</v>
+        <v>990</v>
       </c>
       <c r="H13" t="s">
-        <v>999</v>
+        <v>1007</v>
       </c>
       <c r="J13" t="s">
-        <v>1041</v>
+        <v>1049</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -9685,31 +9738,31 @@
         <v>19330051920235</v>
       </c>
       <c r="B14" t="s">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>917</v>
+        <v>925</v>
       </c>
       <c r="E14" t="s">
-        <v>941</v>
+        <v>949</v>
       </c>
       <c r="F14" t="s">
-        <v>965</v>
+        <v>973</v>
       </c>
       <c r="G14" t="s">
-        <v>965</v>
+        <v>973</v>
       </c>
       <c r="H14" t="s">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="I14" t="s">
-        <v>941</v>
+        <v>949</v>
       </c>
       <c r="J14" t="s">
-        <v>1042</v>
+        <v>1050</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -9720,28 +9773,28 @@
         <v>19330051920236</v>
       </c>
       <c r="B15" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>918</v>
+        <v>926</v>
       </c>
       <c r="E15" t="s">
-        <v>942</v>
+        <v>950</v>
       </c>
       <c r="F15" t="s">
-        <v>966</v>
+        <v>974</v>
       </c>
       <c r="H15" t="s">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="I15" t="s">
-        <v>942</v>
+        <v>950</v>
       </c>
       <c r="J15" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -9752,31 +9805,31 @@
         <v>19330051920237</v>
       </c>
       <c r="B16" t="s">
-        <v>892</v>
+        <v>900</v>
       </c>
       <c r="C16" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D16" t="s">
-        <v>919</v>
+        <v>927</v>
       </c>
       <c r="E16" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="F16" t="s">
-        <v>967</v>
+        <v>975</v>
       </c>
       <c r="G16" t="s">
-        <v>967</v>
+        <v>975</v>
       </c>
       <c r="H16" t="s">
-        <v>1002</v>
+        <v>1010</v>
       </c>
       <c r="I16" t="s">
-        <v>1022</v>
+        <v>1030</v>
       </c>
       <c r="J16" t="s">
-        <v>1044</v>
+        <v>1052</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -9787,31 +9840,31 @@
         <v>19330051920228</v>
       </c>
       <c r="B17" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
       <c r="C17" t="s">
-        <v>900</v>
+        <v>908</v>
       </c>
       <c r="D17" t="s">
-        <v>920</v>
+        <v>928</v>
       </c>
       <c r="E17" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
       <c r="F17" t="s">
-        <v>968</v>
+        <v>976</v>
       </c>
       <c r="G17" t="s">
-        <v>983</v>
+        <v>991</v>
       </c>
       <c r="H17" t="s">
-        <v>1003</v>
+        <v>1011</v>
       </c>
       <c r="I17" t="s">
-        <v>1023</v>
+        <v>1031</v>
       </c>
       <c r="J17" t="s">
-        <v>983</v>
+        <v>991</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -9825,28 +9878,28 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="D18" t="s">
-        <v>921</v>
+        <v>929</v>
       </c>
       <c r="E18" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="F18" t="s">
-        <v>969</v>
+        <v>977</v>
       </c>
       <c r="G18" t="s">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="H18" t="s">
-        <v>1004</v>
+        <v>1012</v>
       </c>
       <c r="I18" t="s">
-        <v>1024</v>
+        <v>1032</v>
       </c>
       <c r="J18" t="s">
-        <v>1045</v>
+        <v>1053</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -9857,28 +9910,28 @@
         <v>19330051920404</v>
       </c>
       <c r="B19" t="s">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="C19" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
       <c r="D19" t="s">
-        <v>922</v>
+        <v>930</v>
       </c>
       <c r="E19" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="F19" t="s">
-        <v>970</v>
+        <v>978</v>
       </c>
       <c r="H19" t="s">
-        <v>1005</v>
+        <v>1013</v>
       </c>
       <c r="I19" t="s">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="J19" t="s">
-        <v>1046</v>
+        <v>1054</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -9889,31 +9942,31 @@
         <v>19330051920240</v>
       </c>
       <c r="B20" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C20" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
       <c r="D20" t="s">
-        <v>923</v>
+        <v>931</v>
       </c>
       <c r="E20" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="F20" t="s">
-        <v>971</v>
+        <v>979</v>
       </c>
       <c r="G20" t="s">
-        <v>985</v>
+        <v>993</v>
       </c>
       <c r="H20" t="s">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="I20" t="s">
-        <v>1026</v>
+        <v>1034</v>
       </c>
       <c r="J20" t="s">
-        <v>1047</v>
+        <v>1055</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -9924,31 +9977,31 @@
         <v>19330051920239</v>
       </c>
       <c r="B21" t="s">
-        <v>895</v>
+        <v>903</v>
       </c>
       <c r="C21" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
       <c r="D21" t="s">
-        <v>924</v>
+        <v>932</v>
       </c>
       <c r="E21" t="s">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="F21" t="s">
-        <v>972</v>
+        <v>980</v>
       </c>
       <c r="G21" t="s">
-        <v>986</v>
+        <v>994</v>
       </c>
       <c r="H21" t="s">
-        <v>1007</v>
+        <v>1015</v>
       </c>
       <c r="I21" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
       <c r="J21" t="s">
-        <v>1048</v>
+        <v>1056</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -9965,25 +10018,25 @@
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>925</v>
+        <v>933</v>
       </c>
       <c r="E22" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="F22" t="s">
-        <v>973</v>
+        <v>981</v>
       </c>
       <c r="G22" t="s">
-        <v>987</v>
+        <v>995</v>
       </c>
       <c r="H22" t="s">
-        <v>1008</v>
+        <v>1016</v>
       </c>
       <c r="I22" t="s">
-        <v>1028</v>
+        <v>1036</v>
       </c>
       <c r="J22" t="s">
-        <v>1049</v>
+        <v>1057</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -9997,25 +10050,25 @@
         <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="D23" t="s">
-        <v>926</v>
+        <v>934</v>
       </c>
       <c r="E23" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
       <c r="F23" t="s">
-        <v>974</v>
+        <v>982</v>
       </c>
       <c r="H23" t="s">
-        <v>1009</v>
+        <v>1017</v>
       </c>
       <c r="I23" t="s">
-        <v>1029</v>
+        <v>1037</v>
       </c>
       <c r="J23" t="s">
-        <v>1050</v>
+        <v>1058</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -10032,22 +10085,22 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>927</v>
+        <v>935</v>
       </c>
       <c r="E24" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="F24" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
       <c r="G24" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
       <c r="H24" t="s">
-        <v>1010</v>
+        <v>1018</v>
       </c>
       <c r="J24" t="s">
-        <v>1051</v>
+        <v>1059</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -10061,25 +10114,25 @@
         <v>279</v>
       </c>
       <c r="C25" t="s">
-        <v>905</v>
+        <v>913</v>
       </c>
       <c r="D25" t="s">
-        <v>928</v>
+        <v>936</v>
       </c>
       <c r="E25" t="s">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="F25" t="s">
-        <v>976</v>
+        <v>984</v>
       </c>
       <c r="H25" t="s">
-        <v>1011</v>
+        <v>1019</v>
       </c>
       <c r="I25" t="s">
-        <v>1030</v>
+        <v>1038</v>
       </c>
       <c r="J25" t="s">
-        <v>1052</v>
+        <v>1060</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -10147,28 +10200,28 @@
         <v>19330051920246</v>
       </c>
       <c r="B2" t="s">
-        <v>1053</v>
+        <v>1061</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>1073</v>
+        <v>1081</v>
       </c>
       <c r="E2" t="s">
-        <v>1101</v>
+        <v>1109</v>
       </c>
       <c r="F2" t="s">
-        <v>1133</v>
+        <v>1141</v>
       </c>
       <c r="G2" t="s">
-        <v>1133</v>
+        <v>1141</v>
       </c>
       <c r="H2" t="s">
-        <v>1176</v>
+        <v>1184</v>
       </c>
       <c r="J2" t="s">
-        <v>1233</v>
+        <v>1241</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -10185,22 +10238,22 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>1074</v>
+        <v>1082</v>
       </c>
       <c r="E3" t="s">
-        <v>1102</v>
+        <v>1110</v>
       </c>
       <c r="F3" t="s">
-        <v>1134</v>
+        <v>1142</v>
       </c>
       <c r="H3" t="s">
-        <v>1177</v>
+        <v>1185</v>
       </c>
       <c r="I3" t="s">
-        <v>1208</v>
+        <v>1216</v>
       </c>
       <c r="J3" t="s">
-        <v>1234</v>
+        <v>1242</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -10217,25 +10270,25 @@
         <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>1075</v>
+        <v>1083</v>
       </c>
       <c r="E4" t="s">
-        <v>1103</v>
+        <v>1111</v>
       </c>
       <c r="F4" t="s">
-        <v>1135</v>
+        <v>1143</v>
       </c>
       <c r="G4" t="s">
-        <v>1164</v>
+        <v>1172</v>
       </c>
       <c r="H4" t="s">
-        <v>1178</v>
+        <v>1186</v>
       </c>
       <c r="I4" t="s">
-        <v>1209</v>
+        <v>1217</v>
       </c>
       <c r="J4" t="s">
-        <v>1235</v>
+        <v>1243</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -10246,31 +10299,31 @@
         <v>19330051920249</v>
       </c>
       <c r="B5" t="s">
-        <v>1054</v>
+        <v>1062</v>
       </c>
       <c r="C5" t="s">
         <v>288</v>
       </c>
       <c r="D5" t="s">
-        <v>1076</v>
+        <v>1084</v>
       </c>
       <c r="E5" t="s">
-        <v>1104</v>
+        <v>1112</v>
       </c>
       <c r="F5" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
       <c r="G5" t="s">
-        <v>1165</v>
+        <v>1173</v>
       </c>
       <c r="H5" t="s">
-        <v>1179</v>
+        <v>1187</v>
       </c>
       <c r="I5" t="s">
-        <v>1210</v>
+        <v>1218</v>
       </c>
       <c r="J5" t="s">
-        <v>1236</v>
+        <v>1244</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -10284,28 +10337,28 @@
         <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>1062</v>
+        <v>1070</v>
       </c>
       <c r="D6" t="s">
-        <v>1077</v>
+        <v>1085</v>
       </c>
       <c r="E6" t="s">
-        <v>1105</v>
+        <v>1113</v>
       </c>
       <c r="F6" t="s">
-        <v>1137</v>
+        <v>1145</v>
       </c>
       <c r="G6" t="s">
-        <v>1137</v>
+        <v>1145</v>
       </c>
       <c r="H6" t="s">
-        <v>1180</v>
+        <v>1188</v>
       </c>
       <c r="I6" t="s">
-        <v>1211</v>
+        <v>1219</v>
       </c>
       <c r="J6" t="s">
-        <v>1237</v>
+        <v>1245</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -10325,19 +10378,19 @@
         <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
       <c r="F7" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="G7" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="H7" t="s">
-        <v>1181</v>
+        <v>1189</v>
       </c>
       <c r="I7" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
       <c r="J7" t="s">
         <v>424</v>
@@ -10357,22 +10410,22 @@
         <v>300</v>
       </c>
       <c r="D8" t="s">
-        <v>1078</v>
+        <v>1086</v>
       </c>
       <c r="E8" t="s">
-        <v>1107</v>
+        <v>1115</v>
       </c>
       <c r="F8" t="s">
-        <v>1139</v>
+        <v>1147</v>
       </c>
       <c r="G8" t="s">
-        <v>1139</v>
+        <v>1147</v>
       </c>
       <c r="H8" t="s">
-        <v>1182</v>
+        <v>1190</v>
       </c>
       <c r="I8" t="s">
-        <v>1107</v>
+        <v>1115</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -10383,28 +10436,28 @@
         <v>19330051920253</v>
       </c>
       <c r="B9" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
       <c r="C9" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D9" t="s">
         <v>316</v>
       </c>
       <c r="E9" t="s">
-        <v>1108</v>
+        <v>1116</v>
       </c>
       <c r="F9" t="s">
-        <v>1140</v>
+        <v>1148</v>
       </c>
       <c r="H9" t="s">
-        <v>1183</v>
+        <v>1191</v>
       </c>
       <c r="I9" t="s">
-        <v>1212</v>
+        <v>1220</v>
       </c>
       <c r="J9" t="s">
-        <v>1238</v>
+        <v>1246</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -10421,25 +10474,25 @@
         <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>1079</v>
+        <v>1087</v>
       </c>
       <c r="E10" t="s">
-        <v>1109</v>
+        <v>1117</v>
       </c>
       <c r="F10" t="s">
-        <v>1141</v>
+        <v>1149</v>
       </c>
       <c r="G10" t="s">
-        <v>1166</v>
+        <v>1174</v>
       </c>
       <c r="H10" t="s">
-        <v>1184</v>
+        <v>1192</v>
       </c>
       <c r="I10" t="s">
-        <v>1213</v>
+        <v>1221</v>
       </c>
       <c r="J10" t="s">
-        <v>1239</v>
+        <v>1247</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -10453,28 +10506,28 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>1063</v>
+        <v>1071</v>
       </c>
       <c r="D11" t="s">
-        <v>1080</v>
+        <v>1088</v>
       </c>
       <c r="E11" t="s">
-        <v>1110</v>
+        <v>1118</v>
       </c>
       <c r="F11" t="s">
-        <v>1142</v>
+        <v>1150</v>
       </c>
       <c r="G11" t="s">
-        <v>1167</v>
+        <v>1175</v>
       </c>
       <c r="H11" t="s">
-        <v>1185</v>
+        <v>1193</v>
       </c>
       <c r="I11" t="s">
-        <v>1214</v>
+        <v>1222</v>
       </c>
       <c r="J11" t="s">
-        <v>1240</v>
+        <v>1248</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -10491,25 +10544,25 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>1081</v>
+        <v>1089</v>
       </c>
       <c r="E12" t="s">
-        <v>1111</v>
+        <v>1119</v>
       </c>
       <c r="F12" t="s">
-        <v>1143</v>
+        <v>1151</v>
       </c>
       <c r="G12" t="s">
-        <v>1143</v>
+        <v>1151</v>
       </c>
       <c r="H12" t="s">
-        <v>1186</v>
+        <v>1194</v>
       </c>
       <c r="I12" t="s">
-        <v>1215</v>
+        <v>1223</v>
       </c>
       <c r="J12" t="s">
-        <v>1241</v>
+        <v>1249</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -10523,28 +10576,28 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>1064</v>
+        <v>1072</v>
       </c>
       <c r="D13" t="s">
-        <v>1082</v>
+        <v>1090</v>
       </c>
       <c r="E13" t="s">
-        <v>1112</v>
+        <v>1120</v>
       </c>
       <c r="F13" t="s">
-        <v>1144</v>
+        <v>1152</v>
       </c>
       <c r="G13" t="s">
-        <v>1168</v>
+        <v>1176</v>
       </c>
       <c r="H13" t="s">
-        <v>1187</v>
+        <v>1195</v>
       </c>
       <c r="I13" t="s">
-        <v>1216</v>
+        <v>1224</v>
       </c>
       <c r="J13" t="s">
-        <v>1242</v>
+        <v>1250</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -10558,28 +10611,28 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>1065</v>
+        <v>1073</v>
       </c>
       <c r="D14" t="s">
-        <v>1083</v>
+        <v>1091</v>
       </c>
       <c r="E14" t="s">
-        <v>1113</v>
+        <v>1121</v>
       </c>
       <c r="F14" t="s">
-        <v>1145</v>
+        <v>1153</v>
       </c>
       <c r="G14" t="s">
-        <v>1145</v>
+        <v>1153</v>
       </c>
       <c r="H14" t="s">
-        <v>1188</v>
+        <v>1196</v>
       </c>
       <c r="I14" t="s">
-        <v>1217</v>
+        <v>1225</v>
       </c>
       <c r="J14" t="s">
-        <v>1243</v>
+        <v>1251</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -10593,25 +10646,25 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>1066</v>
+        <v>1074</v>
       </c>
       <c r="D15" t="s">
-        <v>1084</v>
+        <v>1092</v>
       </c>
       <c r="E15" t="s">
-        <v>1114</v>
+        <v>1122</v>
       </c>
       <c r="F15" t="s">
-        <v>1146</v>
+        <v>1154</v>
       </c>
       <c r="G15" t="s">
-        <v>1169</v>
+        <v>1177</v>
       </c>
       <c r="H15" t="s">
-        <v>1189</v>
+        <v>1197</v>
       </c>
       <c r="I15" t="s">
-        <v>1218</v>
+        <v>1226</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -10625,28 +10678,28 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>1067</v>
+        <v>1075</v>
       </c>
       <c r="D16" t="s">
-        <v>1085</v>
+        <v>1093</v>
       </c>
       <c r="E16" t="s">
-        <v>1115</v>
+        <v>1123</v>
       </c>
       <c r="F16" t="s">
-        <v>1147</v>
+        <v>1155</v>
       </c>
       <c r="G16" t="s">
-        <v>1147</v>
+        <v>1155</v>
       </c>
       <c r="H16" t="s">
-        <v>1190</v>
+        <v>1198</v>
       </c>
       <c r="I16" t="s">
-        <v>1219</v>
+        <v>1227</v>
       </c>
       <c r="J16" t="s">
-        <v>1244</v>
+        <v>1252</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -10657,31 +10710,31 @@
         <v>19330051920260</v>
       </c>
       <c r="B17" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="C17" t="s">
         <v>279</v>
       </c>
       <c r="D17" t="s">
-        <v>1086</v>
+        <v>1094</v>
       </c>
       <c r="E17" t="s">
-        <v>1116</v>
+        <v>1124</v>
       </c>
       <c r="F17" t="s">
-        <v>1148</v>
+        <v>1156</v>
       </c>
       <c r="G17" t="s">
-        <v>1148</v>
+        <v>1156</v>
       </c>
       <c r="H17" t="s">
-        <v>1191</v>
+        <v>1199</v>
       </c>
       <c r="I17" t="s">
-        <v>1220</v>
+        <v>1228</v>
       </c>
       <c r="J17" t="s">
-        <v>1245</v>
+        <v>1253</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -10695,28 +10748,28 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>1061</v>
+        <v>1069</v>
       </c>
       <c r="D18" t="s">
         <v>301</v>
       </c>
       <c r="E18" t="s">
-        <v>1117</v>
+        <v>1125</v>
       </c>
       <c r="F18" t="s">
-        <v>1149</v>
+        <v>1157</v>
       </c>
       <c r="G18" t="s">
-        <v>1170</v>
+        <v>1178</v>
       </c>
       <c r="H18" t="s">
-        <v>1192</v>
+        <v>1200</v>
       </c>
       <c r="I18" t="s">
-        <v>1221</v>
+        <v>1229</v>
       </c>
       <c r="J18" t="s">
-        <v>1246</v>
+        <v>1254</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -10727,31 +10780,31 @@
         <v>19330051920261</v>
       </c>
       <c r="B19" t="s">
-        <v>1056</v>
+        <v>1064</v>
       </c>
       <c r="C19" t="s">
-        <v>1068</v>
+        <v>1076</v>
       </c>
       <c r="D19" t="s">
-        <v>1087</v>
+        <v>1095</v>
       </c>
       <c r="E19" t="s">
-        <v>1118</v>
+        <v>1126</v>
       </c>
       <c r="F19" t="s">
-        <v>1150</v>
+        <v>1158</v>
       </c>
       <c r="G19" t="s">
-        <v>1150</v>
+        <v>1158</v>
       </c>
       <c r="H19" t="s">
-        <v>1193</v>
+        <v>1201</v>
       </c>
       <c r="I19" t="s">
-        <v>1222</v>
+        <v>1230</v>
       </c>
       <c r="J19" t="s">
-        <v>1150</v>
+        <v>1158</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -10762,22 +10815,22 @@
         <v>19330051920265</v>
       </c>
       <c r="B20" t="s">
-        <v>1057</v>
+        <v>1065</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>1088</v>
+        <v>1096</v>
       </c>
       <c r="E20" t="s">
-        <v>1119</v>
+        <v>1127</v>
       </c>
       <c r="F20" t="s">
-        <v>1151</v>
+        <v>1159</v>
       </c>
       <c r="H20" t="s">
-        <v>1194</v>
+        <v>1202</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -10788,31 +10841,31 @@
         <v>19330051920267</v>
       </c>
       <c r="B21" t="s">
-        <v>1058</v>
+        <v>1066</v>
       </c>
       <c r="C21" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D21" t="s">
-        <v>1089</v>
+        <v>1097</v>
       </c>
       <c r="E21" t="s">
-        <v>1120</v>
+        <v>1128</v>
       </c>
       <c r="F21" t="s">
-        <v>1152</v>
+        <v>1160</v>
       </c>
       <c r="G21" t="s">
-        <v>1152</v>
+        <v>1160</v>
       </c>
       <c r="H21" t="s">
-        <v>1195</v>
+        <v>1203</v>
       </c>
       <c r="I21" t="s">
-        <v>1223</v>
+        <v>1231</v>
       </c>
       <c r="J21" t="s">
-        <v>1247</v>
+        <v>1255</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -10823,22 +10876,22 @@
         <v>19330051920266</v>
       </c>
       <c r="B22" t="s">
-        <v>1058</v>
+        <v>1066</v>
       </c>
       <c r="C22" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D22" t="s">
-        <v>1090</v>
+        <v>1098</v>
       </c>
       <c r="E22" t="s">
-        <v>1121</v>
+        <v>1129</v>
       </c>
       <c r="F22" t="s">
-        <v>1153</v>
+        <v>1161</v>
       </c>
       <c r="H22" t="s">
-        <v>1196</v>
+        <v>1204</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -10852,28 +10905,28 @@
         <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>1069</v>
+        <v>1077</v>
       </c>
       <c r="D23" t="s">
         <v>299</v>
       </c>
       <c r="E23" t="s">
-        <v>1122</v>
+        <v>1130</v>
       </c>
       <c r="F23" t="s">
-        <v>1154</v>
+        <v>1162</v>
       </c>
       <c r="G23" t="s">
-        <v>1171</v>
+        <v>1179</v>
       </c>
       <c r="H23" t="s">
-        <v>1197</v>
+        <v>1205</v>
       </c>
       <c r="I23" t="s">
-        <v>1224</v>
+        <v>1232</v>
       </c>
       <c r="J23" t="s">
-        <v>1171</v>
+        <v>1179</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -10884,28 +10937,28 @@
         <v>19330051920400</v>
       </c>
       <c r="B24" t="s">
-        <v>1059</v>
+        <v>1067</v>
       </c>
       <c r="C24" t="s">
-        <v>1070</v>
+        <v>1078</v>
       </c>
       <c r="D24" t="s">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="E24" t="s">
-        <v>1123</v>
+        <v>1131</v>
       </c>
       <c r="F24" t="s">
-        <v>1155</v>
+        <v>1163</v>
       </c>
       <c r="H24" t="s">
-        <v>1198</v>
+        <v>1206</v>
       </c>
       <c r="I24" t="s">
-        <v>1225</v>
+        <v>1233</v>
       </c>
       <c r="J24" t="s">
-        <v>1248</v>
+        <v>1256</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -10922,25 +10975,25 @@
         <v>440</v>
       </c>
       <c r="D25" t="s">
-        <v>1092</v>
+        <v>1100</v>
       </c>
       <c r="E25" t="s">
-        <v>1124</v>
+        <v>1132</v>
       </c>
       <c r="F25" t="s">
-        <v>1156</v>
+        <v>1164</v>
       </c>
       <c r="G25" t="s">
-        <v>1156</v>
+        <v>1164</v>
       </c>
       <c r="H25" t="s">
-        <v>1199</v>
+        <v>1207</v>
       </c>
       <c r="I25" t="s">
-        <v>1226</v>
+        <v>1234</v>
       </c>
       <c r="J25" t="s">
-        <v>1249</v>
+        <v>1257</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -10951,31 +11004,31 @@
         <v>19330051920348</v>
       </c>
       <c r="B26" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C26" t="s">
         <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>1093</v>
+        <v>1101</v>
       </c>
       <c r="E26" t="s">
-        <v>1125</v>
+        <v>1133</v>
       </c>
       <c r="F26" t="s">
-        <v>1157</v>
+        <v>1165</v>
       </c>
       <c r="G26" t="s">
-        <v>1172</v>
+        <v>1180</v>
       </c>
       <c r="H26" t="s">
-        <v>1200</v>
+        <v>1208</v>
       </c>
       <c r="I26" t="s">
-        <v>1227</v>
+        <v>1235</v>
       </c>
       <c r="J26" t="s">
-        <v>1250</v>
+        <v>1258</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -10989,28 +11042,28 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D27" t="s">
-        <v>1094</v>
+        <v>1102</v>
       </c>
       <c r="E27" t="s">
-        <v>1126</v>
+        <v>1134</v>
       </c>
       <c r="F27" t="s">
-        <v>1158</v>
+        <v>1166</v>
       </c>
       <c r="G27" t="s">
-        <v>1173</v>
+        <v>1181</v>
       </c>
       <c r="H27" t="s">
-        <v>1201</v>
+        <v>1209</v>
       </c>
       <c r="I27" t="s">
-        <v>1228</v>
+        <v>1236</v>
       </c>
       <c r="J27" t="s">
-        <v>1251</v>
+        <v>1259</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -11027,25 +11080,25 @@
         <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>1095</v>
+        <v>1103</v>
       </c>
       <c r="E28" t="s">
-        <v>1127</v>
+        <v>1135</v>
       </c>
       <c r="F28" t="s">
-        <v>1159</v>
+        <v>1167</v>
       </c>
       <c r="G28" t="s">
-        <v>1174</v>
+        <v>1182</v>
       </c>
       <c r="H28" t="s">
-        <v>1202</v>
+        <v>1210</v>
       </c>
       <c r="I28" t="s">
-        <v>1229</v>
+        <v>1237</v>
       </c>
       <c r="J28" t="s">
-        <v>1252</v>
+        <v>1260</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -11062,22 +11115,22 @@
         <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>1096</v>
+        <v>1104</v>
       </c>
       <c r="E29" t="s">
-        <v>1128</v>
+        <v>1136</v>
       </c>
       <c r="F29" t="s">
-        <v>1160</v>
+        <v>1168</v>
       </c>
       <c r="H29" t="s">
-        <v>1203</v>
+        <v>1211</v>
       </c>
       <c r="I29" t="s">
-        <v>1230</v>
+        <v>1238</v>
       </c>
       <c r="J29" t="s">
-        <v>1253</v>
+        <v>1261</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -11094,22 +11147,22 @@
         <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>1097</v>
+        <v>1105</v>
       </c>
       <c r="E30" t="s">
-        <v>1129</v>
+        <v>1137</v>
       </c>
       <c r="G30" t="s">
-        <v>1175</v>
+        <v>1183</v>
       </c>
       <c r="H30" t="s">
-        <v>1204</v>
+        <v>1212</v>
       </c>
       <c r="I30" t="s">
-        <v>1231</v>
+        <v>1239</v>
       </c>
       <c r="J30" t="s">
-        <v>1254</v>
+        <v>1262</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -11123,28 +11176,28 @@
         <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>1071</v>
+        <v>1079</v>
       </c>
       <c r="D31" t="s">
-        <v>1098</v>
+        <v>1106</v>
       </c>
       <c r="E31" t="s">
-        <v>1130</v>
+        <v>1138</v>
       </c>
       <c r="F31" t="s">
-        <v>1161</v>
+        <v>1169</v>
       </c>
       <c r="G31" t="s">
-        <v>1161</v>
+        <v>1169</v>
       </c>
       <c r="H31" t="s">
-        <v>1205</v>
+        <v>1213</v>
       </c>
       <c r="I31" t="s">
-        <v>1130</v>
+        <v>1138</v>
       </c>
       <c r="J31" t="s">
-        <v>1255</v>
+        <v>1263</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -11155,25 +11208,25 @@
         <v>19330051920412</v>
       </c>
       <c r="B32" t="s">
-        <v>1060</v>
+        <v>1068</v>
       </c>
       <c r="C32" t="s">
         <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>1099</v>
+        <v>1107</v>
       </c>
       <c r="E32" t="s">
-        <v>1131</v>
+        <v>1139</v>
       </c>
       <c r="F32" t="s">
-        <v>1162</v>
+        <v>1170</v>
       </c>
       <c r="H32" t="s">
-        <v>1206</v>
+        <v>1214</v>
       </c>
       <c r="I32" t="s">
-        <v>1232</v>
+        <v>1240</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -11184,22 +11237,22 @@
         <v>19330051920414</v>
       </c>
       <c r="B33" t="s">
-        <v>1061</v>
+        <v>1069</v>
       </c>
       <c r="C33" t="s">
-        <v>1072</v>
+        <v>1080</v>
       </c>
       <c r="D33" t="s">
-        <v>1100</v>
+        <v>1108</v>
       </c>
       <c r="E33" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="F33" t="s">
-        <v>1163</v>
+        <v>1171</v>
       </c>
       <c r="H33" t="s">
-        <v>1207</v>
+        <v>1215</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -11267,28 +11320,28 @@
         <v>19330051920186</v>
       </c>
       <c r="B2" t="s">
-        <v>1256</v>
+        <v>1264</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>1282</v>
+        <v>1290</v>
       </c>
       <c r="E2" t="s">
-        <v>1309</v>
+        <v>1317</v>
       </c>
       <c r="F2" t="s">
-        <v>1342</v>
+        <v>1350</v>
       </c>
       <c r="H2" t="s">
-        <v>1387</v>
+        <v>1395</v>
       </c>
       <c r="I2" t="s">
-        <v>1420</v>
+        <v>1428</v>
       </c>
       <c r="J2" t="s">
-        <v>1443</v>
+        <v>1451</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -11299,31 +11352,31 @@
         <v>19330051920185</v>
       </c>
       <c r="B3" t="s">
-        <v>1257</v>
+        <v>1265</v>
       </c>
       <c r="C3" t="s">
-        <v>1271</v>
+        <v>1279</v>
       </c>
       <c r="D3" t="s">
-        <v>1283</v>
+        <v>1291</v>
       </c>
       <c r="E3" t="s">
-        <v>1310</v>
+        <v>1318</v>
       </c>
       <c r="F3" t="s">
-        <v>1343</v>
+        <v>1351</v>
       </c>
       <c r="G3" t="s">
-        <v>1375</v>
+        <v>1383</v>
       </c>
       <c r="H3" t="s">
-        <v>1388</v>
+        <v>1396</v>
       </c>
       <c r="I3" t="s">
-        <v>1421</v>
+        <v>1429</v>
       </c>
       <c r="J3" t="s">
-        <v>1444</v>
+        <v>1452</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -11334,31 +11387,31 @@
         <v>19330051920187</v>
       </c>
       <c r="B4" t="s">
-        <v>1258</v>
+        <v>1266</v>
       </c>
       <c r="C4" t="s">
         <v>285</v>
       </c>
       <c r="D4" t="s">
-        <v>1284</v>
+        <v>1292</v>
       </c>
       <c r="E4" t="s">
-        <v>1311</v>
+        <v>1319</v>
       </c>
       <c r="F4" t="s">
-        <v>1344</v>
+        <v>1352</v>
       </c>
       <c r="G4" t="s">
-        <v>1344</v>
+        <v>1352</v>
       </c>
       <c r="H4" t="s">
-        <v>1389</v>
+        <v>1397</v>
       </c>
       <c r="I4" t="s">
-        <v>1422</v>
+        <v>1430</v>
       </c>
       <c r="J4" t="s">
-        <v>1445</v>
+        <v>1453</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -11369,31 +11422,31 @@
         <v>19330051920189</v>
       </c>
       <c r="B5" t="s">
-        <v>1259</v>
+        <v>1267</v>
       </c>
       <c r="C5" t="s">
-        <v>1057</v>
+        <v>1065</v>
       </c>
       <c r="D5" t="s">
-        <v>1285</v>
+        <v>1293</v>
       </c>
       <c r="E5" t="s">
-        <v>1312</v>
+        <v>1320</v>
       </c>
       <c r="F5" t="s">
-        <v>1345</v>
+        <v>1353</v>
       </c>
       <c r="G5" t="s">
-        <v>1376</v>
+        <v>1384</v>
       </c>
       <c r="H5" t="s">
-        <v>1390</v>
+        <v>1398</v>
       </c>
       <c r="I5" t="s">
-        <v>1423</v>
+        <v>1431</v>
       </c>
       <c r="J5" t="s">
-        <v>1446</v>
+        <v>1454</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -11404,7 +11457,7 @@
         <v>19330051920190</v>
       </c>
       <c r="B6" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
@@ -11413,16 +11466,16 @@
         <v>490</v>
       </c>
       <c r="E6" t="s">
-        <v>1313</v>
+        <v>1321</v>
       </c>
       <c r="F6" t="s">
-        <v>1346</v>
+        <v>1354</v>
       </c>
       <c r="G6" t="s">
-        <v>1346</v>
+        <v>1354</v>
       </c>
       <c r="H6" t="s">
-        <v>1391</v>
+        <v>1399</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -11439,25 +11492,25 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>1286</v>
+        <v>1294</v>
       </c>
       <c r="E7" t="s">
-        <v>1314</v>
+        <v>1322</v>
       </c>
       <c r="F7" t="s">
-        <v>1347</v>
+        <v>1355</v>
       </c>
       <c r="G7" t="s">
-        <v>1347</v>
+        <v>1355</v>
       </c>
       <c r="H7" t="s">
-        <v>1392</v>
+        <v>1400</v>
       </c>
       <c r="I7" t="s">
-        <v>1424</v>
+        <v>1432</v>
       </c>
       <c r="J7" t="s">
-        <v>1447</v>
+        <v>1455</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -11468,28 +11521,28 @@
         <v>19330051920194</v>
       </c>
       <c r="B8" t="s">
-        <v>1260</v>
+        <v>1268</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>1287</v>
+        <v>1295</v>
       </c>
       <c r="E8" t="s">
-        <v>1315</v>
+        <v>1323</v>
       </c>
       <c r="F8" t="s">
-        <v>1348</v>
+        <v>1356</v>
       </c>
       <c r="H8" t="s">
-        <v>1393</v>
+        <v>1401</v>
       </c>
       <c r="I8" t="s">
-        <v>1425</v>
+        <v>1433</v>
       </c>
       <c r="J8" t="s">
-        <v>1448</v>
+        <v>1456</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -11503,25 +11556,25 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>1272</v>
+        <v>1280</v>
       </c>
       <c r="D9" t="s">
-        <v>1288</v>
+        <v>1296</v>
       </c>
       <c r="E9" t="s">
-        <v>1316</v>
+        <v>1324</v>
       </c>
       <c r="F9" t="s">
-        <v>1349</v>
+        <v>1357</v>
       </c>
       <c r="G9" t="s">
-        <v>1377</v>
+        <v>1385</v>
       </c>
       <c r="H9" t="s">
-        <v>1394</v>
+        <v>1402</v>
       </c>
       <c r="J9" t="s">
-        <v>1449</v>
+        <v>1457</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -11532,31 +11585,31 @@
         <v>19330051920195</v>
       </c>
       <c r="B10" t="s">
-        <v>1261</v>
+        <v>1269</v>
       </c>
       <c r="C10" t="s">
-        <v>1273</v>
+        <v>1281</v>
       </c>
       <c r="D10" t="s">
-        <v>1289</v>
+        <v>1297</v>
       </c>
       <c r="E10" t="s">
-        <v>1317</v>
+        <v>1325</v>
       </c>
       <c r="F10" t="s">
-        <v>1350</v>
+        <v>1358</v>
       </c>
       <c r="G10" t="s">
-        <v>1350</v>
+        <v>1358</v>
       </c>
       <c r="H10" t="s">
-        <v>1395</v>
+        <v>1403</v>
       </c>
       <c r="I10" t="s">
-        <v>1426</v>
+        <v>1434</v>
       </c>
       <c r="J10" t="s">
-        <v>1450</v>
+        <v>1458</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -11570,28 +11623,28 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>889</v>
+        <v>897</v>
       </c>
       <c r="D11" t="s">
-        <v>1290</v>
+        <v>1298</v>
       </c>
       <c r="E11" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="F11" t="s">
-        <v>1351</v>
+        <v>1359</v>
       </c>
       <c r="G11" t="s">
-        <v>1378</v>
+        <v>1386</v>
       </c>
       <c r="H11" t="s">
-        <v>1396</v>
+        <v>1404</v>
       </c>
       <c r="I11" t="s">
-        <v>1427</v>
+        <v>1435</v>
       </c>
       <c r="J11" t="s">
-        <v>1451</v>
+        <v>1459</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -11602,28 +11655,28 @@
         <v>19330051920196</v>
       </c>
       <c r="B12" t="s">
-        <v>1262</v>
+        <v>1270</v>
       </c>
       <c r="C12" t="s">
         <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>1291</v>
+        <v>1299</v>
       </c>
       <c r="E12" t="s">
-        <v>1319</v>
+        <v>1327</v>
       </c>
       <c r="F12" t="s">
-        <v>1352</v>
+        <v>1360</v>
       </c>
       <c r="H12" t="s">
-        <v>1397</v>
+        <v>1405</v>
       </c>
       <c r="I12" t="s">
-        <v>1428</v>
+        <v>1436</v>
       </c>
       <c r="J12" t="s">
-        <v>1452</v>
+        <v>1460</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -11637,28 +11690,28 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>1274</v>
+        <v>1282</v>
       </c>
       <c r="D13" t="s">
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>1320</v>
+        <v>1328</v>
       </c>
       <c r="F13" t="s">
-        <v>1353</v>
+        <v>1361</v>
       </c>
       <c r="G13" t="s">
-        <v>1379</v>
+        <v>1387</v>
       </c>
       <c r="H13" t="s">
-        <v>1398</v>
+        <v>1406</v>
       </c>
       <c r="I13" t="s">
-        <v>1429</v>
+        <v>1437</v>
       </c>
       <c r="J13" t="s">
-        <v>1379</v>
+        <v>1387</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -11669,31 +11722,31 @@
         <v>19330051920199</v>
       </c>
       <c r="B14" t="s">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>1292</v>
+        <v>1300</v>
       </c>
       <c r="E14" t="s">
-        <v>1321</v>
+        <v>1329</v>
       </c>
       <c r="F14" t="s">
-        <v>1354</v>
+        <v>1362</v>
       </c>
       <c r="G14" t="s">
-        <v>1354</v>
+        <v>1362</v>
       </c>
       <c r="H14" t="s">
-        <v>1399</v>
+        <v>1407</v>
       </c>
       <c r="I14" t="s">
-        <v>1430</v>
+        <v>1438</v>
       </c>
       <c r="J14" t="s">
-        <v>1453</v>
+        <v>1461</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -11704,31 +11757,31 @@
         <v>19330051920200</v>
       </c>
       <c r="B15" t="s">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="C15" t="s">
-        <v>1275</v>
+        <v>1283</v>
       </c>
       <c r="D15" t="s">
         <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>1322</v>
+        <v>1330</v>
       </c>
       <c r="F15" t="s">
-        <v>1355</v>
+        <v>1363</v>
       </c>
       <c r="G15" t="s">
-        <v>1380</v>
+        <v>1388</v>
       </c>
       <c r="H15" t="s">
-        <v>1400</v>
+        <v>1408</v>
       </c>
       <c r="I15" t="s">
-        <v>1431</v>
+        <v>1439</v>
       </c>
       <c r="J15" t="s">
-        <v>1454</v>
+        <v>1462</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -11742,28 +11795,28 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>1276</v>
+        <v>1284</v>
       </c>
       <c r="D16" t="s">
-        <v>1293</v>
+        <v>1301</v>
       </c>
       <c r="E16" t="s">
-        <v>1323</v>
+        <v>1331</v>
       </c>
       <c r="F16" t="s">
-        <v>1356</v>
+        <v>1364</v>
       </c>
       <c r="G16" t="s">
-        <v>1356</v>
+        <v>1364</v>
       </c>
       <c r="H16" t="s">
-        <v>1401</v>
+        <v>1409</v>
       </c>
       <c r="I16" t="s">
-        <v>1432</v>
+        <v>1440</v>
       </c>
       <c r="J16" t="s">
-        <v>1455</v>
+        <v>1463</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -11774,28 +11827,28 @@
         <v>19330051920202</v>
       </c>
       <c r="B17" t="s">
-        <v>1263</v>
+        <v>1271</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>1294</v>
+        <v>1302</v>
       </c>
       <c r="E17" t="s">
-        <v>1324</v>
+        <v>1332</v>
       </c>
       <c r="F17" t="s">
-        <v>1357</v>
+        <v>1365</v>
       </c>
       <c r="G17" t="s">
-        <v>1381</v>
+        <v>1389</v>
       </c>
       <c r="H17" t="s">
-        <v>1402</v>
+        <v>1410</v>
       </c>
       <c r="J17" t="s">
-        <v>1456</v>
+        <v>1464</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -11806,28 +11859,28 @@
         <v>19330051920203</v>
       </c>
       <c r="B18" t="s">
-        <v>1264</v>
+        <v>1272</v>
       </c>
       <c r="C18" t="s">
-        <v>1277</v>
+        <v>1285</v>
       </c>
       <c r="D18" t="s">
-        <v>1295</v>
+        <v>1303</v>
       </c>
       <c r="E18" t="s">
-        <v>1325</v>
+        <v>1333</v>
       </c>
       <c r="F18" t="s">
-        <v>1358</v>
+        <v>1366</v>
       </c>
       <c r="H18" t="s">
-        <v>1403</v>
+        <v>1411</v>
       </c>
       <c r="I18" t="s">
-        <v>1433</v>
+        <v>1441</v>
       </c>
       <c r="J18" t="s">
-        <v>1457</v>
+        <v>1465</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -11844,22 +11897,22 @@
         <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>1296</v>
+        <v>1304</v>
       </c>
       <c r="E19" t="s">
-        <v>1326</v>
+        <v>1334</v>
       </c>
       <c r="F19" t="s">
-        <v>1359</v>
+        <v>1367</v>
       </c>
       <c r="H19" t="s">
-        <v>1404</v>
+        <v>1412</v>
       </c>
       <c r="I19" t="s">
-        <v>1326</v>
+        <v>1334</v>
       </c>
       <c r="J19" t="s">
-        <v>1458</v>
+        <v>1466</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -11870,31 +11923,31 @@
         <v>19330051920206</v>
       </c>
       <c r="B20" t="s">
-        <v>1265</v>
+        <v>1273</v>
       </c>
       <c r="C20" t="s">
-        <v>1278</v>
+        <v>1286</v>
       </c>
       <c r="D20" t="s">
-        <v>1297</v>
+        <v>1305</v>
       </c>
       <c r="E20" t="s">
-        <v>1327</v>
+        <v>1335</v>
       </c>
       <c r="F20" t="s">
-        <v>1360</v>
+        <v>1368</v>
       </c>
       <c r="G20" t="s">
-        <v>1360</v>
+        <v>1368</v>
       </c>
       <c r="H20" t="s">
-        <v>1405</v>
+        <v>1413</v>
       </c>
       <c r="I20" t="s">
-        <v>1327</v>
+        <v>1335</v>
       </c>
       <c r="J20" t="s">
-        <v>1360</v>
+        <v>1368</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -11905,28 +11958,28 @@
         <v>19330051920207</v>
       </c>
       <c r="B21" t="s">
-        <v>1058</v>
+        <v>1066</v>
       </c>
       <c r="C21" t="s">
-        <v>1279</v>
+        <v>1287</v>
       </c>
       <c r="D21" t="s">
-        <v>1083</v>
+        <v>1091</v>
       </c>
       <c r="E21" t="s">
-        <v>1328</v>
+        <v>1336</v>
       </c>
       <c r="F21" t="s">
-        <v>1361</v>
+        <v>1369</v>
       </c>
       <c r="H21" t="s">
-        <v>1406</v>
+        <v>1414</v>
       </c>
       <c r="I21" t="s">
-        <v>1434</v>
+        <v>1442</v>
       </c>
       <c r="J21" t="s">
-        <v>1361</v>
+        <v>1369</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -11937,28 +11990,28 @@
         <v>19330051920209</v>
       </c>
       <c r="B22" t="s">
-        <v>1266</v>
+        <v>1274</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>1298</v>
+        <v>1306</v>
       </c>
       <c r="E22" t="s">
-        <v>1329</v>
+        <v>1337</v>
       </c>
       <c r="F22" t="s">
-        <v>1362</v>
+        <v>1370</v>
       </c>
       <c r="G22" t="s">
-        <v>1362</v>
+        <v>1370</v>
       </c>
       <c r="H22" t="s">
-        <v>1407</v>
+        <v>1415</v>
       </c>
       <c r="J22" t="s">
-        <v>1459</v>
+        <v>1467</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -11975,25 +12028,25 @@
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>1299</v>
+        <v>1307</v>
       </c>
       <c r="E23" t="s">
-        <v>1330</v>
+        <v>1338</v>
       </c>
       <c r="F23" t="s">
-        <v>1363</v>
+        <v>1371</v>
       </c>
       <c r="G23" t="s">
-        <v>1382</v>
+        <v>1390</v>
       </c>
       <c r="H23" t="s">
-        <v>1408</v>
+        <v>1416</v>
       </c>
       <c r="I23" t="s">
-        <v>1435</v>
+        <v>1443</v>
       </c>
       <c r="J23" t="s">
-        <v>1460</v>
+        <v>1468</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -12010,25 +12063,25 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>1300</v>
+        <v>1308</v>
       </c>
       <c r="E24" t="s">
-        <v>1331</v>
+        <v>1339</v>
       </c>
       <c r="F24" t="s">
-        <v>1364</v>
+        <v>1372</v>
       </c>
       <c r="G24" t="s">
-        <v>1383</v>
+        <v>1391</v>
       </c>
       <c r="H24" t="s">
-        <v>1409</v>
+        <v>1417</v>
       </c>
       <c r="I24" t="s">
-        <v>1436</v>
+        <v>1444</v>
       </c>
       <c r="J24" t="s">
-        <v>1461</v>
+        <v>1469</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -12039,7 +12092,7 @@
         <v>19330051920212</v>
       </c>
       <c r="B25" t="s">
-        <v>1267</v>
+        <v>1275</v>
       </c>
       <c r="C25" t="s">
         <v>23</v>
@@ -12048,19 +12101,19 @@
         <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>1332</v>
+        <v>1340</v>
       </c>
       <c r="F25" t="s">
-        <v>1365</v>
+        <v>1373</v>
       </c>
       <c r="H25" t="s">
-        <v>1410</v>
+        <v>1418</v>
       </c>
       <c r="I25" t="s">
-        <v>1437</v>
+        <v>1445</v>
       </c>
       <c r="J25" t="s">
-        <v>1462</v>
+        <v>1470</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -12077,25 +12130,25 @@
         <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>1301</v>
+        <v>1309</v>
       </c>
       <c r="E26" t="s">
-        <v>1333</v>
+        <v>1341</v>
       </c>
       <c r="F26" t="s">
-        <v>1366</v>
+        <v>1374</v>
       </c>
       <c r="G26" t="s">
-        <v>1366</v>
+        <v>1374</v>
       </c>
       <c r="H26" t="s">
-        <v>1411</v>
+        <v>1419</v>
       </c>
       <c r="I26" t="s">
-        <v>1438</v>
+        <v>1446</v>
       </c>
       <c r="J26" t="s">
-        <v>1463</v>
+        <v>1471</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -12112,25 +12165,25 @@
         <v>276</v>
       </c>
       <c r="D27" t="s">
-        <v>1302</v>
+        <v>1310</v>
       </c>
       <c r="E27" t="s">
-        <v>1334</v>
+        <v>1342</v>
       </c>
       <c r="F27" t="s">
-        <v>1367</v>
+        <v>1375</v>
       </c>
       <c r="G27" t="s">
-        <v>1384</v>
+        <v>1392</v>
       </c>
       <c r="H27" t="s">
-        <v>1412</v>
+        <v>1420</v>
       </c>
       <c r="I27" t="s">
-        <v>1439</v>
+        <v>1447</v>
       </c>
       <c r="J27" t="s">
-        <v>1464</v>
+        <v>1472</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -12144,22 +12197,22 @@
         <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D28" t="s">
-        <v>1303</v>
+        <v>1311</v>
       </c>
       <c r="E28" t="s">
-        <v>1335</v>
+        <v>1343</v>
       </c>
       <c r="F28" t="s">
-        <v>1368</v>
+        <v>1376</v>
       </c>
       <c r="H28" t="s">
-        <v>1413</v>
+        <v>1421</v>
       </c>
       <c r="J28" t="s">
-        <v>1465</v>
+        <v>1473</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -12170,31 +12223,31 @@
         <v>19330051920218</v>
       </c>
       <c r="B29" t="s">
-        <v>1268</v>
+        <v>1276</v>
       </c>
       <c r="C29" t="s">
-        <v>1280</v>
+        <v>1288</v>
       </c>
       <c r="D29" t="s">
-        <v>1304</v>
+        <v>1312</v>
       </c>
       <c r="E29" t="s">
-        <v>1336</v>
+        <v>1344</v>
       </c>
       <c r="F29" t="s">
-        <v>1369</v>
+        <v>1377</v>
       </c>
       <c r="G29" t="s">
-        <v>1385</v>
+        <v>1393</v>
       </c>
       <c r="H29" t="s">
-        <v>1414</v>
+        <v>1422</v>
       </c>
       <c r="I29" t="s">
-        <v>1336</v>
+        <v>1344</v>
       </c>
       <c r="J29" t="s">
-        <v>1466</v>
+        <v>1474</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -12211,19 +12264,19 @@
         <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>920</v>
+        <v>928</v>
       </c>
       <c r="E30" t="s">
-        <v>1337</v>
+        <v>1345</v>
       </c>
       <c r="F30" t="s">
-        <v>1370</v>
+        <v>1378</v>
       </c>
       <c r="H30" t="s">
-        <v>1415</v>
+        <v>1423</v>
       </c>
       <c r="J30" t="s">
-        <v>1467</v>
+        <v>1475</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -12234,31 +12287,31 @@
         <v>19330051920439</v>
       </c>
       <c r="B31" t="s">
-        <v>1269</v>
+        <v>1277</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>1305</v>
+        <v>1313</v>
       </c>
       <c r="E31" t="s">
-        <v>1338</v>
+        <v>1346</v>
       </c>
       <c r="F31" t="s">
-        <v>1371</v>
+        <v>1379</v>
       </c>
       <c r="G31" t="s">
-        <v>1386</v>
+        <v>1394</v>
       </c>
       <c r="H31" t="s">
-        <v>1416</v>
+        <v>1424</v>
       </c>
       <c r="I31" t="s">
-        <v>1440</v>
+        <v>1448</v>
       </c>
       <c r="J31" t="s">
-        <v>1468</v>
+        <v>1476</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -12275,19 +12328,19 @@
         <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>1306</v>
+        <v>1314</v>
       </c>
       <c r="E32" t="s">
-        <v>1339</v>
+        <v>1347</v>
       </c>
       <c r="F32" t="s">
-        <v>1372</v>
+        <v>1380</v>
       </c>
       <c r="H32" t="s">
-        <v>1417</v>
+        <v>1425</v>
       </c>
       <c r="J32" t="s">
-        <v>1469</v>
+        <v>1477</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -12298,28 +12351,28 @@
         <v>19330051920221</v>
       </c>
       <c r="B33" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C33" t="s">
-        <v>1281</v>
+        <v>1289</v>
       </c>
       <c r="D33" t="s">
-        <v>1307</v>
+        <v>1315</v>
       </c>
       <c r="E33" t="s">
-        <v>1340</v>
+        <v>1348</v>
       </c>
       <c r="F33" t="s">
-        <v>1373</v>
+        <v>1381</v>
       </c>
       <c r="H33" t="s">
-        <v>1418</v>
+        <v>1426</v>
       </c>
       <c r="I33" t="s">
-        <v>1441</v>
+        <v>1449</v>
       </c>
       <c r="J33" t="s">
-        <v>1470</v>
+        <v>1478</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -12330,28 +12383,28 @@
         <v>18330051920351</v>
       </c>
       <c r="B34" t="s">
-        <v>1270</v>
+        <v>1278</v>
       </c>
       <c r="C34" t="s">
         <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>1308</v>
+        <v>1316</v>
       </c>
       <c r="E34" t="s">
-        <v>1341</v>
+        <v>1349</v>
       </c>
       <c r="F34" t="s">
-        <v>1374</v>
+        <v>1382</v>
       </c>
       <c r="H34" t="s">
-        <v>1419</v>
+        <v>1427</v>
       </c>
       <c r="I34" t="s">
-        <v>1442</v>
+        <v>1450</v>
       </c>
       <c r="J34" t="s">
-        <v>1471</v>
+        <v>1479</v>
       </c>
       <c r="K34">
         <v>1</v>

--- a/Ortega Valle Manuel 20212.xlsx
+++ b/Ortega Valle Manuel 20212.xlsx
@@ -6363,7 +6363,7 @@
         <v>385</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8329,6 +8329,9 @@
       <c r="J4" t="s">
         <v>864</v>
       </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
@@ -8723,7 +8726,7 @@
         <v>875</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:11">
